--- a/AAII_Financials/Quarterly/RWLK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RWLK_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>RWLK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,77 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -740,10 +743,10 @@
         <v>1200</v>
       </c>
       <c r="E8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F8" s="3">
         <v>900</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1600</v>
       </c>
       <c r="G8" s="3">
         <v>1600</v>
@@ -752,119 +755,128 @@
         <v>1600</v>
       </c>
       <c r="I8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J8" s="3">
         <v>1800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>500</v>
+      </c>
+      <c r="E9" s="3">
         <v>600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1000</v>
-      </c>
-      <c r="J9" s="3">
-        <v>900</v>
       </c>
       <c r="K9" s="3">
         <v>900</v>
       </c>
       <c r="L9" s="3">
+        <v>900</v>
+      </c>
+      <c r="M9" s="3">
         <v>1000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>700</v>
+      </c>
+      <c r="E10" s="3">
         <v>600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>600</v>
-      </c>
-      <c r="L10" s="3">
-        <v>700</v>
       </c>
       <c r="M10" s="3">
         <v>700</v>
       </c>
       <c r="N10" s="3">
+        <v>700</v>
+      </c>
+      <c r="O10" s="3">
         <v>1100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +893,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E12" s="3">
         <v>1000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2200</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1600</v>
       </c>
       <c r="L12" s="3">
         <v>1600</v>
       </c>
       <c r="M12" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="N12" s="3">
         <v>1400</v>
       </c>
       <c r="O12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P12" s="3">
         <v>2300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,26 +1005,26 @@
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>300</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E17" s="3">
         <v>4300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7400</v>
-      </c>
-      <c r="K17" s="3">
-        <v>7100</v>
       </c>
       <c r="L17" s="3">
         <v>7100</v>
       </c>
       <c r="M17" s="3">
+        <v>7100</v>
+      </c>
+      <c r="N17" s="3">
         <v>7700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5400</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-5700</v>
       </c>
       <c r="N18" s="3">
         <v>-5700</v>
       </c>
       <c r="O18" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="P18" s="3">
         <v>-8000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1199,13 +1232,13 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
@@ -1214,7 +1247,7 @@
         <v>100</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1222,57 +1255,63 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-4100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5200</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-5500</v>
       </c>
       <c r="N21" s="3">
         <v>-5500</v>
       </c>
       <c r="O21" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="P21" s="3">
         <v>-7900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
         <v>400</v>
@@ -1281,13 +1320,13 @@
         <v>400</v>
       </c>
       <c r="G22" s="3">
+        <v>400</v>
+      </c>
+      <c r="H22" s="3">
         <v>1000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>400</v>
-      </c>
-      <c r="I22" s="3">
-        <v>500</v>
       </c>
       <c r="J22" s="3">
         <v>500</v>
@@ -1299,63 +1338,69 @@
         <v>500</v>
       </c>
       <c r="M22" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N22" s="3">
         <v>700</v>
       </c>
       <c r="O22" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="P22" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1381,11 +1426,11 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1727,13 +1796,13 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
@@ -1742,7 +1811,7 @@
         <v>-100</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -1750,52 +1819,58 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2052,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E41" s="3">
         <v>20400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>24100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>17100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>23700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,184 +2144,199 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>800</v>
+      </c>
+      <c r="E43" s="3">
         <v>600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E44" s="3">
         <v>3000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
         <v>1200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
-      </c>
-      <c r="H45" s="3">
-        <v>1200</v>
       </c>
       <c r="I45" s="3">
         <v>1200</v>
       </c>
       <c r="J45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K45" s="3">
         <v>2000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E46" s="3">
         <v>25100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>28500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>13400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>13200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>15200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>15900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>20900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>19400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>22000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>22900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>29300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2379,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2284,19 +2391,19 @@
         <v>2200</v>
       </c>
       <c r="E48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F48" s="3">
         <v>2300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>700</v>
-      </c>
-      <c r="I48" s="3">
-        <v>800</v>
       </c>
       <c r="J48" s="3">
         <v>800</v>
@@ -2305,22 +2412,25 @@
         <v>800</v>
       </c>
       <c r="L48" s="3">
+        <v>800</v>
+      </c>
+      <c r="M48" s="3">
         <v>900</v>
-      </c>
-      <c r="M48" s="3">
-        <v>1100</v>
       </c>
       <c r="N48" s="3">
         <v>1100</v>
       </c>
       <c r="O48" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="P48" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,16 +2567,19 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E52" s="3">
         <v>1000</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1100</v>
       </c>
       <c r="F52" s="3">
         <v>1100</v>
@@ -2469,10 +2588,10 @@
         <v>1100</v>
       </c>
       <c r="H52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I52" s="3">
         <v>1000</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1100</v>
       </c>
       <c r="J52" s="3">
         <v>1100</v>
@@ -2481,7 +2600,7 @@
         <v>1100</v>
       </c>
       <c r="L52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="M52" s="3">
         <v>1200</v>
@@ -2493,10 +2612,13 @@
         <v>1200</v>
       </c>
       <c r="P52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E54" s="3">
         <v>28400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>32000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>17000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>17700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>21500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>24300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>25300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>31800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,72 +2748,76 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E57" s="3">
         <v>3000</v>
-      </c>
-      <c r="E57" s="3">
-        <v>2800</v>
       </c>
       <c r="F57" s="3">
         <v>2800</v>
       </c>
       <c r="G57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H57" s="3">
         <v>2300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3000</v>
-      </c>
-      <c r="O57" s="3">
-        <v>3400</v>
       </c>
       <c r="P57" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E58" s="3">
         <v>4400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>6400</v>
       </c>
       <c r="J58" s="3">
         <v>6400</v>
@@ -2693,22 +2826,25 @@
         <v>6400</v>
       </c>
       <c r="L58" s="3">
+        <v>6400</v>
+      </c>
+      <c r="M58" s="3">
         <v>5700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2716,22 +2852,22 @@
         <v>2000</v>
       </c>
       <c r="E59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F59" s="3">
         <v>2100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1900</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1300</v>
       </c>
       <c r="H59" s="3">
         <v>1300</v>
       </c>
       <c r="I59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J59" s="3">
         <v>1700</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1500</v>
       </c>
       <c r="K59" s="3">
         <v>1500</v>
@@ -2749,98 +2885,107 @@
         <v>1500</v>
       </c>
       <c r="P59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E60" s="3">
         <v>9500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E61" s="3">
         <v>3000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10000</v>
-      </c>
-      <c r="M61" s="3">
-        <v>8500</v>
       </c>
       <c r="N61" s="3">
         <v>8500</v>
       </c>
       <c r="O61" s="3">
+        <v>8500</v>
+      </c>
+      <c r="P61" s="3">
         <v>10500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2848,16 +2993,16 @@
         <v>1900</v>
       </c>
       <c r="E62" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="F62" s="3">
         <v>2000</v>
       </c>
       <c r="G62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H62" s="3">
         <v>700</v>
-      </c>
-      <c r="H62" s="3">
-        <v>600</v>
       </c>
       <c r="I62" s="3">
         <v>600</v>
@@ -2866,13 +3011,13 @@
         <v>600</v>
       </c>
       <c r="K62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L62" s="3">
         <v>500</v>
       </c>
       <c r="M62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N62" s="3">
         <v>600</v>
@@ -2881,10 +3026,13 @@
         <v>600</v>
       </c>
       <c r="P62" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q62" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E66" s="3">
         <v>14300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>17100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>18300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>19200</v>
       </c>
       <c r="K66" s="3">
         <v>19200</v>
       </c>
       <c r="L66" s="3">
+        <v>19200</v>
+      </c>
+      <c r="M66" s="3">
         <v>20100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>20900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>21900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>23500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-168500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-164900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-161500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-156900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-152900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-147900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-143400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-137600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-131200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-125100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-119200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-112900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-106500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-97900</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E76" s="3">
         <v>14100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3658,7 +3856,7 @@
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-7300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6700</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,13 +4173,14 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>10</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>10</v>
@@ -3968,20 +4188,20 @@
       <c r="F91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>10</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,22 +4312,25 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>10</v>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4566,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>18900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>6900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>7100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>18600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4660,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>15200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>11300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RWLK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RWLK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>RWLK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,144 +665,158 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>800</v>
+      </c>
+      <c r="F8" s="3">
         <v>1200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>900</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1600</v>
       </c>
       <c r="I8" s="3">
         <v>1600</v>
       </c>
       <c r="J8" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K8" s="3">
         <v>1600</v>
       </c>
       <c r="L8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N8" s="3">
         <v>1500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>400</v>
+      </c>
+      <c r="F9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>700</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I9" s="3">
-        <v>900</v>
       </c>
       <c r="J9" s="3">
         <v>1000</v>
@@ -811,72 +825,84 @@
         <v>900</v>
       </c>
       <c r="L9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M9" s="3">
         <v>900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
+        <v>900</v>
+      </c>
+      <c r="O9" s="3">
         <v>1000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>400</v>
+      </c>
+      <c r="F10" s="3">
         <v>700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>600</v>
-      </c>
-      <c r="I10" s="3">
-        <v>700</v>
-      </c>
-      <c r="J10" s="3">
-        <v>800</v>
       </c>
       <c r="K10" s="3">
         <v>700</v>
       </c>
       <c r="L10" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M10" s="3">
         <v>700</v>
       </c>
       <c r="N10" s="3">
+        <v>600</v>
+      </c>
+      <c r="O10" s="3">
         <v>700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>-100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,55 +920,63 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E12" s="3">
         <v>1000</v>
       </c>
       <c r="F12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="3">
         <v>1900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>2200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>1600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>1400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>2300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -988,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,35 +1048,41 @@
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>300</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E17" s="3">
         <v>4400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G17" s="3">
         <v>4300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>5100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>5200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>5600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>5700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>7000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>7400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>7100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>7100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>7700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>8200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>9600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-3100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-4200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-3600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-4000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-4100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-5200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-5800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-5600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-5400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-5700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-5700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1235,104 +1303,116 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>100</v>
-      </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-3000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-4100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-3500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-3900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-4000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-5200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-5700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-5400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-5200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-5500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-5500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
-        <v>400</v>
-      </c>
       <c r="F22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>400</v>
       </c>
       <c r="H22" s="3">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="I22" s="3">
         <v>400</v>
       </c>
       <c r="J22" s="3">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K22" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L22" s="3">
         <v>500</v>
@@ -1341,71 +1421,83 @@
         <v>500</v>
       </c>
       <c r="N22" s="3">
+        <v>500</v>
+      </c>
+      <c r="O22" s="3">
+        <v>500</v>
+      </c>
+      <c r="P22" s="3">
         <v>700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-3400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-4600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-4000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-5000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-4500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-5800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-6300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-6100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-5800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-6300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-6400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1429,14 +1521,14 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-3400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-4600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-4000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-5000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-4500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-5800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-6300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-6200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-5800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-6300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-6400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-3400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-4600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-4000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-5000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-4500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-5800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-6300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-6200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-5800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-6300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-6400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1799,78 +1939,90 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-100</v>
-      </c>
       <c r="M32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-3400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-4600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-4000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-5000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-4500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-5800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-6300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-6200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-5800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-6300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-6400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-3400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-4600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-4000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-5000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-4500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-5800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-6300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-6200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-5800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-6300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-6400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2225,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>16600</v>
+      </c>
+      <c r="F41" s="3">
         <v>16300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>20400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>24100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>8900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>9500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>5200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>9100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>8800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>14600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>12900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>16300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>17100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>23700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,196 +2327,226 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>700</v>
+      </c>
+      <c r="F43" s="3">
         <v>800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1600</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M43" s="3">
-        <v>1300</v>
       </c>
       <c r="N43" s="3">
         <v>1100</v>
       </c>
       <c r="O43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q43" s="3">
         <v>1400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F44" s="3">
         <v>3100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>3000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>2700</v>
-      </c>
-      <c r="G44" s="3">
-        <v>2500</v>
-      </c>
-      <c r="H44" s="3">
-        <v>2200</v>
       </c>
       <c r="I44" s="3">
         <v>2500</v>
       </c>
       <c r="J44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K44" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L44" s="3">
         <v>3000</v>
-      </c>
-      <c r="K44" s="3">
-        <v>3500</v>
-      </c>
-      <c r="L44" s="3">
-        <v>3600</v>
       </c>
       <c r="M44" s="3">
         <v>3500</v>
       </c>
       <c r="N44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="O44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="P44" s="3">
         <v>3400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>3000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>6500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>2000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>22000</v>
+      </c>
+      <c r="F46" s="3">
         <v>21100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>25100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>28500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>13400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>13200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>10100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>15200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>15900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>20900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>19400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>22000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>22900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>29300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,55 +2592,67 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="E48" s="3">
         <v>2200</v>
       </c>
       <c r="F48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H48" s="3">
         <v>2300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>700</v>
-      </c>
-      <c r="J48" s="3">
-        <v>800</v>
-      </c>
-      <c r="K48" s="3">
-        <v>800</v>
       </c>
       <c r="L48" s="3">
         <v>800</v>
       </c>
       <c r="M48" s="3">
+        <v>800</v>
+      </c>
+      <c r="N48" s="3">
+        <v>800</v>
+      </c>
+      <c r="O48" s="3">
         <v>900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,13 +2804,19 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E52" s="3">
         <v>1000</v>
@@ -2585,28 +2825,28 @@
         <v>1100</v>
       </c>
       <c r="G52" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H52" s="3">
         <v>1100</v>
       </c>
       <c r="I52" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="J52" s="3">
         <v>1100</v>
       </c>
       <c r="K52" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="L52" s="3">
         <v>1100</v>
       </c>
       <c r="M52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="N52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="O52" s="3">
         <v>1200</v>
@@ -2615,10 +2855,16 @@
         <v>1200</v>
       </c>
       <c r="Q52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F54" s="3">
         <v>24400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>28400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>32000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>17000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>15000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>11900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>17000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>17700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>22900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>21500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>24300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>25300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>31800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,131 +3009,145 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F57" s="3">
         <v>2700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2800</v>
-      </c>
-      <c r="G57" s="3">
-        <v>2800</v>
-      </c>
-      <c r="H57" s="3">
-        <v>2300</v>
       </c>
       <c r="I57" s="3">
         <v>2800</v>
       </c>
       <c r="J57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L57" s="3">
         <v>3000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>3000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F58" s="3">
         <v>5400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>4400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>3500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>2600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>7000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>6400</v>
-      </c>
-      <c r="K58" s="3">
-        <v>6400</v>
       </c>
       <c r="L58" s="3">
         <v>6400</v>
       </c>
       <c r="M58" s="3">
+        <v>6400</v>
+      </c>
+      <c r="N58" s="3">
+        <v>6400</v>
+      </c>
+      <c r="O58" s="3">
         <v>5700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>7400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>8400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>7500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F59" s="3">
         <v>2000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1700</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1500</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1500</v>
       </c>
       <c r="M59" s="3">
         <v>1500</v>
@@ -2888,151 +3162,175 @@
         <v>1500</v>
       </c>
       <c r="Q59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F60" s="3">
         <v>10200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>9500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>8400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>7300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>11000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>11100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>10800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>9700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>9600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>11800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>12800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>12400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>1500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>3000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>4400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>5700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>7000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>5400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>6600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>7800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>8900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>10000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>8500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>8500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>10500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F62" s="3">
         <v>1900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>700</v>
-      </c>
-      <c r="I62" s="3">
-        <v>600</v>
-      </c>
-      <c r="J62" s="3">
-        <v>600</v>
       </c>
       <c r="K62" s="3">
         <v>600</v>
       </c>
       <c r="L62" s="3">
+        <v>600</v>
+      </c>
+      <c r="M62" s="3">
+        <v>600</v>
+      </c>
+      <c r="N62" s="3">
         <v>500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>500</v>
-      </c>
-      <c r="N62" s="3">
-        <v>600</v>
-      </c>
-      <c r="O62" s="3">
-        <v>600</v>
       </c>
       <c r="P62" s="3">
         <v>600</v>
       </c>
       <c r="Q62" s="3">
+        <v>600</v>
+      </c>
+      <c r="R62" s="3">
+        <v>600</v>
+      </c>
+      <c r="S62" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>12100</v>
+      </c>
+      <c r="F66" s="3">
         <v>13600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>14300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>14700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>15000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>13000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>17100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>18300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>19200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>19200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>20100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>20900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>21900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>23500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-175200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-172300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-168500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-164900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-161500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-156900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-152900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-147900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-143400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-137600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-131200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-125100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-119200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-112900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-106500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-97900</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F76" s="3">
         <v>10800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>14100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>17300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-5200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>3400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>8300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-3400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-4600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-4000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-5000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-4500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-5800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-6300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-6200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-5800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-6300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-6400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3859,10 +4257,10 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>200</v>
+      </c>
+      <c r="S83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-3600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-3300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-3700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-4300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-2600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-3100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-4000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-5000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-5400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-5800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-5100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-6100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-6700</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,40 +4614,42 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>10</v>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
+      <c r="H91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="I91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4221,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4326,18 +4786,18 @@
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G94" s="3" t="s">
+      <c r="I94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -4362,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +5055,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F100" s="3">
         <v>-600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>18900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>3600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>6900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>4300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>7100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>2500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>4300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>18600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +5161,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-4200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-3700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>15200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>4300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-3900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-5800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-3300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-6600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>11300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-3300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RWLK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RWLK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>RWLK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,105 +665,109 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>800</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1200</v>
       </c>
       <c r="G8" s="3">
         <v>1200</v>
       </c>
       <c r="H8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I8" s="3">
         <v>900</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1600</v>
       </c>
       <c r="J8" s="3">
         <v>1600</v>
@@ -772,137 +776,146 @@
         <v>1600</v>
       </c>
       <c r="L8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M8" s="3">
         <v>1800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1000</v>
-      </c>
-      <c r="M9" s="3">
-        <v>900</v>
       </c>
       <c r="N9" s="3">
         <v>900</v>
       </c>
       <c r="O9" s="3">
+        <v>900</v>
+      </c>
+      <c r="P9" s="3">
         <v>1000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>600</v>
-      </c>
-      <c r="O10" s="3">
-        <v>700</v>
       </c>
       <c r="P10" s="3">
         <v>700</v>
       </c>
       <c r="Q10" s="3">
+        <v>700</v>
+      </c>
+      <c r="R10" s="3">
         <v>1100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E12" s="3">
         <v>1000</v>
       </c>
       <c r="F12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="3">
         <v>1100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2200</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1600</v>
       </c>
       <c r="O12" s="3">
         <v>1600</v>
       </c>
       <c r="P12" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="Q12" s="3">
         <v>1400</v>
       </c>
       <c r="R12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S12" s="3">
         <v>2300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,52 +1045,55 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>300</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E17" s="3">
         <v>4200</v>
-      </c>
-      <c r="E17" s="3">
-        <v>4400</v>
       </c>
       <c r="F17" s="3">
         <v>4400</v>
       </c>
       <c r="G17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H17" s="3">
         <v>4300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7400</v>
-      </c>
-      <c r="N17" s="3">
-        <v>7100</v>
       </c>
       <c r="O17" s="3">
         <v>7100</v>
       </c>
       <c r="P17" s="3">
+        <v>7100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>7700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5400</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-5700</v>
       </c>
       <c r="Q18" s="3">
         <v>-5700</v>
       </c>
       <c r="R18" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="S18" s="3">
         <v>-8000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1309,13 +1343,13 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>100</v>
@@ -1324,7 +1358,7 @@
         <v>100</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -1332,61 +1366,67 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5200</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-5500</v>
       </c>
       <c r="Q21" s="3">
         <v>-5500</v>
       </c>
       <c r="R21" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="S21" s="3">
         <v>-7900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,13 +1434,13 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>300</v>
       </c>
       <c r="G22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>400</v>
@@ -1409,13 +1449,13 @@
         <v>400</v>
       </c>
       <c r="J22" s="3">
+        <v>400</v>
+      </c>
+      <c r="K22" s="3">
         <v>1000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>400</v>
-      </c>
-      <c r="L22" s="3">
-        <v>500</v>
       </c>
       <c r="M22" s="3">
         <v>500</v>
@@ -1427,81 +1467,87 @@
         <v>500</v>
       </c>
       <c r="P22" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q22" s="3">
         <v>700</v>
       </c>
       <c r="R22" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="S22" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-8600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1527,11 +1573,11 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-8500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-8500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1945,13 +2015,13 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>-100</v>
@@ -1960,7 +2030,7 @@
         <v>-100</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
@@ -1968,61 +2038,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-6400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-8500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-6400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-8500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E41" s="3">
         <v>14100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>20400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>24100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>16300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>17100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>23700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,220 +2423,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>700</v>
+      </c>
+      <c r="E43" s="3">
         <v>1100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E44" s="3">
         <v>3500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>800</v>
+      </c>
+      <c r="E45" s="3">
         <v>1100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1200</v>
       </c>
       <c r="L45" s="3">
         <v>1200</v>
       </c>
       <c r="M45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N45" s="3">
         <v>2000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E46" s="3">
         <v>19700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>22000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>21100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>25100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>28500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>13400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>13200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>20900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>19400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>22000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>22900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>29300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,16 +2703,19 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E48" s="3">
         <v>2000</v>
-      </c>
-      <c r="E48" s="3">
-        <v>2200</v>
       </c>
       <c r="F48" s="3">
         <v>2200</v>
@@ -2616,19 +2724,19 @@
         <v>2200</v>
       </c>
       <c r="H48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I48" s="3">
         <v>2300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>700</v>
-      </c>
-      <c r="L48" s="3">
-        <v>800</v>
       </c>
       <c r="M48" s="3">
         <v>800</v>
@@ -2637,22 +2745,25 @@
         <v>800</v>
       </c>
       <c r="O48" s="3">
+        <v>800</v>
+      </c>
+      <c r="P48" s="3">
         <v>900</v>
-      </c>
-      <c r="P48" s="3">
-        <v>1100</v>
       </c>
       <c r="Q48" s="3">
         <v>1100</v>
       </c>
       <c r="R48" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="S48" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2822,13 +2942,13 @@
         <v>1000</v>
       </c>
       <c r="F52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G52" s="3">
         <v>1100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1100</v>
       </c>
       <c r="I52" s="3">
         <v>1100</v>
@@ -2837,10 +2957,10 @@
         <v>1100</v>
       </c>
       <c r="K52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L52" s="3">
         <v>1000</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1100</v>
       </c>
       <c r="M52" s="3">
         <v>1100</v>
@@ -2849,7 +2969,7 @@
         <v>1100</v>
       </c>
       <c r="O52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="P52" s="3">
         <v>1200</v>
@@ -2861,10 +2981,13 @@
         <v>1200</v>
       </c>
       <c r="S52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E54" s="3">
         <v>22700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>25200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>24400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>28400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>32000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>17000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>15000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>22900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>21500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>24300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>25300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>31800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3020,81 +3151,84 @@
         <v>2100</v>
       </c>
       <c r="E57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F57" s="3">
         <v>2800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>2800</v>
       </c>
       <c r="I57" s="3">
         <v>2800</v>
       </c>
       <c r="J57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K57" s="3">
         <v>2300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3000</v>
-      </c>
-      <c r="R57" s="3">
-        <v>3400</v>
       </c>
       <c r="S57" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E58" s="3">
         <v>4500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>6400</v>
       </c>
       <c r="M58" s="3">
         <v>6400</v>
@@ -3103,54 +3237,57 @@
         <v>6400</v>
       </c>
       <c r="O58" s="3">
+        <v>6400</v>
+      </c>
+      <c r="P58" s="3">
         <v>5700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E59" s="3">
         <v>2200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1900</v>
-      </c>
-      <c r="F59" s="3">
-        <v>2000</v>
       </c>
       <c r="G59" s="3">
         <v>2000</v>
       </c>
       <c r="H59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I59" s="3">
         <v>2100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1900</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1300</v>
       </c>
       <c r="K59" s="3">
         <v>1300</v>
       </c>
       <c r="L59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M59" s="3">
         <v>1700</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1500</v>
       </c>
       <c r="N59" s="3">
         <v>1500</v>
@@ -3168,63 +3305,69 @@
         <v>1500</v>
       </c>
       <c r="S59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E60" s="3">
         <v>8800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>12400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3232,78 +3375,81 @@
         <v>200</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>1500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10000</v>
-      </c>
-      <c r="P61" s="3">
-        <v>8500</v>
       </c>
       <c r="Q61" s="3">
         <v>8500</v>
       </c>
       <c r="R61" s="3">
+        <v>8500</v>
+      </c>
+      <c r="S61" s="3">
         <v>10500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1800</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1900</v>
       </c>
       <c r="G62" s="3">
         <v>1900</v>
       </c>
       <c r="H62" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="I62" s="3">
         <v>2000</v>
       </c>
       <c r="J62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K62" s="3">
         <v>700</v>
-      </c>
-      <c r="K62" s="3">
-        <v>600</v>
       </c>
       <c r="L62" s="3">
         <v>600</v>
@@ -3312,13 +3458,13 @@
         <v>600</v>
       </c>
       <c r="N62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O62" s="3">
         <v>500</v>
       </c>
       <c r="P62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q62" s="3">
         <v>600</v>
@@ -3327,10 +3473,13 @@
         <v>600</v>
       </c>
       <c r="S62" s="3">
+        <v>600</v>
+      </c>
+      <c r="T62" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E66" s="3">
         <v>10800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>19200</v>
       </c>
       <c r="N66" s="3">
         <v>19200</v>
       </c>
       <c r="O66" s="3">
+        <v>19200</v>
+      </c>
+      <c r="P66" s="3">
         <v>20100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>20900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>21900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>23500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-178500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-175200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-172300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-168500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-164900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-161500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-156900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-152900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-147900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-143400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-137600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-131200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-125100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-119200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-112900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-106500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-97900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E76" s="3">
         <v>11900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>17300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-6400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-8500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4263,7 +4462,7 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-7300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-6700</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,13 +4836,14 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4630,8 +4851,8 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>10</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>10</v>
@@ -4639,20 +4860,20 @@
       <c r="I91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>10</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,13 +5002,16 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4792,14 +5022,14 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>10</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>18900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>7100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>18600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>15200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>11300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RWLK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RWLK_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,115 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E8" s="3">
         <v>700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>800</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1200</v>
       </c>
       <c r="H8" s="3">
         <v>1200</v>
       </c>
       <c r="I8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J8" s="3">
         <v>900</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1600</v>
       </c>
       <c r="K8" s="3">
         <v>1600</v>
@@ -779,143 +782,152 @@
         <v>1600</v>
       </c>
       <c r="M8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N8" s="3">
         <v>1800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>800</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1000</v>
-      </c>
-      <c r="N9" s="3">
-        <v>900</v>
       </c>
       <c r="O9" s="3">
         <v>900</v>
       </c>
       <c r="P9" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q9" s="3">
         <v>1000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>600</v>
-      </c>
-      <c r="P10" s="3">
-        <v>700</v>
       </c>
       <c r="Q10" s="3">
         <v>700</v>
       </c>
       <c r="R10" s="3">
+        <v>700</v>
+      </c>
+      <c r="S10" s="3">
         <v>1100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -945,55 +958,58 @@
         <v>800</v>
       </c>
       <c r="E12" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F12" s="3">
         <v>1000</v>
       </c>
       <c r="G12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="3">
         <v>1100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2200</v>
-      </c>
-      <c r="O12" s="3">
-        <v>1600</v>
       </c>
       <c r="P12" s="3">
         <v>1600</v>
       </c>
       <c r="Q12" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="R12" s="3">
         <v>1400</v>
       </c>
       <c r="S12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T12" s="3">
         <v>2300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1074,29 +1093,29 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>300</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4200</v>
-      </c>
-      <c r="F17" s="3">
-        <v>4400</v>
       </c>
       <c r="G17" s="3">
         <v>4400</v>
       </c>
       <c r="H17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I17" s="3">
         <v>4300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7400</v>
-      </c>
-      <c r="O17" s="3">
-        <v>7100</v>
       </c>
       <c r="P17" s="3">
         <v>7100</v>
       </c>
       <c r="Q17" s="3">
+        <v>7100</v>
+      </c>
+      <c r="R17" s="3">
         <v>7700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5400</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-5700</v>
       </c>
       <c r="R18" s="3">
         <v>-5700</v>
       </c>
       <c r="S18" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="T18" s="3">
         <v>-8000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,13 +1345,14 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1346,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>100</v>
@@ -1361,7 +1394,7 @@
         <v>100</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
@@ -1369,81 +1402,87 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5200</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-5500</v>
       </c>
       <c r="R21" s="3">
         <v>-5500</v>
       </c>
       <c r="S21" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="T21" s="3">
         <v>-7900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
       </c>
       <c r="F22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>300</v>
       </c>
       <c r="H22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I22" s="3">
         <v>400</v>
@@ -1452,13 +1491,13 @@
         <v>400</v>
       </c>
       <c r="K22" s="3">
+        <v>400</v>
+      </c>
+      <c r="L22" s="3">
         <v>1000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>400</v>
-      </c>
-      <c r="M22" s="3">
-        <v>500</v>
       </c>
       <c r="N22" s="3">
         <v>500</v>
@@ -1470,75 +1509,81 @@
         <v>500</v>
       </c>
       <c r="Q22" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="R22" s="3">
         <v>700</v>
       </c>
       <c r="S22" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T22" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-6400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-8600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1546,11 +1591,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1576,11 +1621,11 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-6400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-8500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-6400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-8500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,13 +2051,16 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2018,13 +2087,13 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>-100</v>
@@ -2033,7 +2102,7 @@
         <v>-100</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
@@ -2041,64 +2110,70 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-6300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-6400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-8500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-6300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-6400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-8500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E41" s="3">
         <v>18100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>16300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>20400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>24100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>16300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>17100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>23700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2515,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2435,223 +2527,235 @@
         <v>700</v>
       </c>
       <c r="E43" s="3">
+        <v>700</v>
+      </c>
+      <c r="F43" s="3">
         <v>1100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E44" s="3">
         <v>3700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>6500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
-      </c>
-      <c r="L45" s="3">
-        <v>1200</v>
       </c>
       <c r="M45" s="3">
         <v>1200</v>
       </c>
       <c r="N45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O45" s="3">
         <v>2000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E46" s="3">
         <v>23300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>19700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>22000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>21100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>25100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>28500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>13400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>20900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>19400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>22000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>22900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>29300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,19 +2810,22 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E48" s="3">
         <v>1900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2000</v>
-      </c>
-      <c r="F48" s="3">
-        <v>2200</v>
       </c>
       <c r="G48" s="3">
         <v>2200</v>
@@ -2727,19 +2834,19 @@
         <v>2200</v>
       </c>
       <c r="I48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J48" s="3">
         <v>2300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>700</v>
-      </c>
-      <c r="M48" s="3">
-        <v>800</v>
       </c>
       <c r="N48" s="3">
         <v>800</v>
@@ -2748,22 +2855,25 @@
         <v>800</v>
       </c>
       <c r="P48" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q48" s="3">
         <v>900</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>1100</v>
       </c>
       <c r="R48" s="3">
         <v>1100</v>
       </c>
       <c r="S48" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="T48" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2945,13 +3064,13 @@
         <v>1000</v>
       </c>
       <c r="G52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H52" s="3">
         <v>1100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1000</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1100</v>
       </c>
       <c r="J52" s="3">
         <v>1100</v>
@@ -2960,10 +3079,10 @@
         <v>1100</v>
       </c>
       <c r="L52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M52" s="3">
         <v>1000</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1100</v>
       </c>
       <c r="N52" s="3">
         <v>1100</v>
@@ -2972,7 +3091,7 @@
         <v>1100</v>
       </c>
       <c r="P52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="Q52" s="3">
         <v>1200</v>
@@ -2984,10 +3103,13 @@
         <v>1200</v>
       </c>
       <c r="T52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E54" s="3">
         <v>26200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>22700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>25200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>24400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>28400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>32000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>17000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>22900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>21500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>24300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>25300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>31800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,96 +3271,100 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="E57" s="3">
         <v>2100</v>
       </c>
       <c r="F57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G57" s="3">
         <v>2800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3000</v>
-      </c>
-      <c r="I57" s="3">
-        <v>2800</v>
       </c>
       <c r="J57" s="3">
         <v>2800</v>
       </c>
       <c r="K57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L57" s="3">
         <v>2300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3000</v>
-      </c>
-      <c r="S57" s="3">
-        <v>3400</v>
       </c>
       <c r="T57" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>3300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>6400</v>
       </c>
       <c r="N58" s="3">
         <v>6400</v>
@@ -3240,57 +3373,60 @@
         <v>6400</v>
       </c>
       <c r="P58" s="3">
+        <v>6400</v>
+      </c>
+      <c r="Q58" s="3">
         <v>5700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E59" s="3">
         <v>2300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1900</v>
-      </c>
-      <c r="G59" s="3">
-        <v>2000</v>
       </c>
       <c r="H59" s="3">
         <v>2000</v>
       </c>
       <c r="I59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J59" s="3">
         <v>2100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1900</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1300</v>
       </c>
       <c r="L59" s="3">
         <v>1300</v>
       </c>
       <c r="M59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N59" s="3">
         <v>1700</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1500</v>
       </c>
       <c r="O59" s="3">
         <v>1500</v>
@@ -3308,122 +3444,131 @@
         <v>1500</v>
       </c>
       <c r="T59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E60" s="3">
         <v>7600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>12800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>12400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>200</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>1500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10000</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>8500</v>
       </c>
       <c r="R61" s="3">
         <v>8500</v>
       </c>
       <c r="S61" s="3">
+        <v>8500</v>
+      </c>
+      <c r="T61" s="3">
         <v>10500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3431,28 +3576,28 @@
         <v>1600</v>
       </c>
       <c r="E62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F62" s="3">
         <v>1700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1800</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1900</v>
       </c>
       <c r="H62" s="3">
         <v>1900</v>
       </c>
       <c r="I62" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="J62" s="3">
         <v>2000</v>
       </c>
       <c r="K62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L62" s="3">
         <v>700</v>
-      </c>
-      <c r="L62" s="3">
-        <v>600</v>
       </c>
       <c r="M62" s="3">
         <v>600</v>
@@ -3461,13 +3606,13 @@
         <v>600</v>
       </c>
       <c r="O62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P62" s="3">
         <v>500</v>
       </c>
       <c r="Q62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="R62" s="3">
         <v>600</v>
@@ -3476,10 +3621,13 @@
         <v>600</v>
       </c>
       <c r="T62" s="3">
+        <v>600</v>
+      </c>
+      <c r="U62" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E66" s="3">
         <v>9400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18300</v>
-      </c>
-      <c r="N66" s="3">
-        <v>19200</v>
       </c>
       <c r="O66" s="3">
         <v>19200</v>
       </c>
       <c r="P66" s="3">
+        <v>19200</v>
+      </c>
+      <c r="Q66" s="3">
         <v>20100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>20900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>21900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>23500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-181400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-178500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-175200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-172300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-168500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-164900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-161500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-156900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-152900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-147900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-143400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-137600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-131200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-125100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-119200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-112900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-106500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-97900</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E76" s="3">
         <v>16800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>17300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-5200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-6300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-6400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-8500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4465,7 +4663,7 @@
         <v>100</v>
       </c>
       <c r="P83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q83" s="3">
         <v>200</v>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-7300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-6700</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,25 +5056,26 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>10</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>10</v>
@@ -4863,20 +5083,20 @@
       <c r="J91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>10</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,17 +5231,20 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -5025,14 +5254,14 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>10</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E100" s="3">
         <v>6600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>18900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>7100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>18600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E102" s="3">
         <v>4000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>15200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>11300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RWLK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RWLK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>RWLK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,122 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E8" s="3">
         <v>1200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>800</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1200</v>
       </c>
       <c r="I8" s="3">
         <v>1200</v>
       </c>
       <c r="J8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K8" s="3">
         <v>900</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1600</v>
       </c>
       <c r="L8" s="3">
         <v>1600</v>
@@ -785,149 +789,158 @@
         <v>1600</v>
       </c>
       <c r="N8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O8" s="3">
         <v>1800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>600</v>
+      </c>
+      <c r="E9" s="3">
         <v>800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1000</v>
-      </c>
-      <c r="O9" s="3">
-        <v>900</v>
       </c>
       <c r="P9" s="3">
         <v>900</v>
       </c>
       <c r="Q9" s="3">
+        <v>900</v>
+      </c>
+      <c r="R9" s="3">
         <v>1000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>700</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>600</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>700</v>
       </c>
       <c r="R10" s="3">
         <v>700</v>
       </c>
       <c r="S10" s="3">
+        <v>700</v>
+      </c>
+      <c r="T10" s="3">
         <v>1100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -961,55 +975,58 @@
         <v>800</v>
       </c>
       <c r="F12" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G12" s="3">
         <v>1000</v>
       </c>
       <c r="H12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I12" s="3">
         <v>1100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2200</v>
-      </c>
-      <c r="P12" s="3">
-        <v>1600</v>
       </c>
       <c r="Q12" s="3">
         <v>1600</v>
       </c>
       <c r="R12" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="S12" s="3">
         <v>1400</v>
       </c>
       <c r="T12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U12" s="3">
         <v>2300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1096,29 +1116,29 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>300</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E17" s="3">
         <v>4000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>4400</v>
       </c>
       <c r="H17" s="3">
         <v>4400</v>
       </c>
       <c r="I17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J17" s="3">
         <v>4300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7400</v>
-      </c>
-      <c r="P17" s="3">
-        <v>7100</v>
       </c>
       <c r="Q17" s="3">
         <v>7100</v>
       </c>
       <c r="R17" s="3">
+        <v>7100</v>
+      </c>
+      <c r="S17" s="3">
         <v>7700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5400</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-5700</v>
       </c>
       <c r="S18" s="3">
         <v>-5700</v>
       </c>
       <c r="T18" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="U18" s="3">
         <v>-8000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,17 +1379,18 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1382,13 +1416,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>100</v>
@@ -1397,7 +1431,7 @@
         <v>100</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
@@ -1405,87 +1439,93 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5200</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-5500</v>
       </c>
       <c r="S21" s="3">
         <v>-5500</v>
       </c>
       <c r="T21" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="U21" s="3">
         <v>-7900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
-      </c>
-      <c r="E22" s="3">
-        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
       </c>
       <c r="G22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
       </c>
       <c r="I22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J22" s="3">
         <v>400</v>
@@ -1494,13 +1534,13 @@
         <v>400</v>
       </c>
       <c r="L22" s="3">
+        <v>400</v>
+      </c>
+      <c r="M22" s="3">
         <v>1000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>400</v>
-      </c>
-      <c r="N22" s="3">
-        <v>500</v>
       </c>
       <c r="O22" s="3">
         <v>500</v>
@@ -1512,19 +1552,22 @@
         <v>500</v>
       </c>
       <c r="R22" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="S22" s="3">
         <v>700</v>
       </c>
       <c r="T22" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="U22" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1532,58 +1575,61 @@
         <v>-3000</v>
       </c>
       <c r="E23" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-6300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-6400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-8600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1594,11 +1640,11 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1624,11 +1670,11 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-6300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-6400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-8500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-6300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-6400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-8500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,17 +2121,20 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2090,13 +2160,13 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>-100</v>
@@ -2105,7 +2175,7 @@
         <v>-100</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
@@ -2113,67 +2183,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-6300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-6400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-8500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-6300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-6400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-8500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>67400</v>
+      </c>
+      <c r="E41" s="3">
         <v>20400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>18100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>16600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>20400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>24100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>14600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>16300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>17100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>23700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,67 +2608,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E43" s="3">
         <v>700</v>
       </c>
       <c r="F43" s="3">
+        <v>700</v>
+      </c>
+      <c r="G43" s="3">
         <v>1100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2586,176 +2682,185 @@
         <v>3500</v>
       </c>
       <c r="E44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F44" s="3">
         <v>3700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>6500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>700</v>
-      </c>
-      <c r="M45" s="3">
-        <v>1200</v>
       </c>
       <c r="N45" s="3">
         <v>1200</v>
       </c>
       <c r="O45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P45" s="3">
         <v>2000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>71900</v>
+      </c>
+      <c r="E46" s="3">
         <v>25200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>23300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>19700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>22000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>21100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>25100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>28500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>15900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>20900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>19400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>22000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>22900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>29300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,22 +2918,25 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>2200</v>
       </c>
       <c r="H48" s="3">
         <v>2200</v>
@@ -2837,19 +2945,19 @@
         <v>2200</v>
       </c>
       <c r="J48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K48" s="3">
         <v>2300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>700</v>
-      </c>
-      <c r="N48" s="3">
-        <v>800</v>
       </c>
       <c r="O48" s="3">
         <v>800</v>
@@ -2858,22 +2966,25 @@
         <v>800</v>
       </c>
       <c r="Q48" s="3">
+        <v>800</v>
+      </c>
+      <c r="R48" s="3">
         <v>900</v>
-      </c>
-      <c r="R48" s="3">
-        <v>1100</v>
       </c>
       <c r="S48" s="3">
         <v>1100</v>
       </c>
       <c r="T48" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="U48" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3067,13 +3187,13 @@
         <v>1000</v>
       </c>
       <c r="H52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I52" s="3">
         <v>1100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1000</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1100</v>
       </c>
       <c r="K52" s="3">
         <v>1100</v>
@@ -3082,10 +3202,10 @@
         <v>1100</v>
       </c>
       <c r="M52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N52" s="3">
         <v>1000</v>
-      </c>
-      <c r="N52" s="3">
-        <v>1100</v>
       </c>
       <c r="O52" s="3">
         <v>1100</v>
@@ -3094,7 +3214,7 @@
         <v>1100</v>
       </c>
       <c r="Q52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="R52" s="3">
         <v>1200</v>
@@ -3106,10 +3226,13 @@
         <v>1200</v>
       </c>
       <c r="U52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>74600</v>
+      </c>
+      <c r="E54" s="3">
         <v>28100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>26200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>22700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>25200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>24400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>28400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>32000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>22900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>21500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>24300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>25300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>31800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,102 +3402,106 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>2100</v>
       </c>
       <c r="F57" s="3">
         <v>2100</v>
       </c>
       <c r="G57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H57" s="3">
         <v>2800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>2800</v>
       </c>
       <c r="K57" s="3">
         <v>2800</v>
       </c>
       <c r="L57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M57" s="3">
         <v>2300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3000</v>
-      </c>
-      <c r="T57" s="3">
-        <v>3400</v>
       </c>
       <c r="U57" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>3300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7000</v>
-      </c>
-      <c r="N58" s="3">
-        <v>6400</v>
       </c>
       <c r="O58" s="3">
         <v>6400</v>
@@ -3376,60 +3510,63 @@
         <v>6400</v>
       </c>
       <c r="Q58" s="3">
+        <v>6400</v>
+      </c>
+      <c r="R58" s="3">
         <v>5700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>8400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1900</v>
-      </c>
-      <c r="H59" s="3">
-        <v>2000</v>
       </c>
       <c r="I59" s="3">
         <v>2000</v>
       </c>
       <c r="J59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K59" s="3">
         <v>2100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1900</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1300</v>
       </c>
       <c r="M59" s="3">
         <v>1300</v>
       </c>
       <c r="N59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O59" s="3">
         <v>1700</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1500</v>
       </c>
       <c r="P59" s="3">
         <v>1500</v>
@@ -3447,69 +3584,75 @@
         <v>1500</v>
       </c>
       <c r="U59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>12800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>12400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3517,90 +3660,93 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>200</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>1500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10000</v>
-      </c>
-      <c r="R61" s="3">
-        <v>8500</v>
       </c>
       <c r="S61" s="3">
         <v>8500</v>
       </c>
       <c r="T61" s="3">
+        <v>8500</v>
+      </c>
+      <c r="U61" s="3">
         <v>10500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E62" s="3">
         <v>1600</v>
       </c>
       <c r="F62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G62" s="3">
         <v>1700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1800</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1900</v>
       </c>
       <c r="I62" s="3">
         <v>1900</v>
       </c>
       <c r="J62" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="K62" s="3">
         <v>2000</v>
       </c>
       <c r="L62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M62" s="3">
         <v>700</v>
-      </c>
-      <c r="M62" s="3">
-        <v>600</v>
       </c>
       <c r="N62" s="3">
         <v>600</v>
@@ -3609,13 +3755,13 @@
         <v>600</v>
       </c>
       <c r="P62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q62" s="3">
         <v>500</v>
       </c>
       <c r="R62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="S62" s="3">
         <v>600</v>
@@ -3624,10 +3770,13 @@
         <v>600</v>
       </c>
       <c r="U62" s="3">
+        <v>600</v>
+      </c>
+      <c r="V62" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E66" s="3">
         <v>6300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18300</v>
-      </c>
-      <c r="O66" s="3">
-        <v>19200</v>
       </c>
       <c r="P66" s="3">
         <v>19200</v>
       </c>
       <c r="Q66" s="3">
+        <v>19200</v>
+      </c>
+      <c r="R66" s="3">
         <v>20100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>20900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>21900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>23500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-184500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-181400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-178500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-175200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-172300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-168500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-164900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-161500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-156900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-152900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-147900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-143400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-137600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-131200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-125100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-119200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-112900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-106500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-97900</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E76" s="3">
         <v>21800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>17300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-5200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-6300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-6400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-8500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4666,7 +4865,7 @@
         <v>100</v>
       </c>
       <c r="Q83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R83" s="3">
         <v>200</v>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-6100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-7300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-6700</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5066,19 +5287,19 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>10</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>10</v>
@@ -5086,20 +5307,20 @@
       <c r="K91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>10</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5243,11 +5473,11 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -5257,14 +5487,14 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>10</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E100" s="3">
         <v>4800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>6600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>18900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>7100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>18600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E102" s="3">
         <v>2300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>15200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-6600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>11300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RWLK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RWLK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>RWLK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,129 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E8" s="3">
         <v>1300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>800</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1200</v>
       </c>
       <c r="J8" s="3">
         <v>1200</v>
       </c>
       <c r="K8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L8" s="3">
         <v>900</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1600</v>
       </c>
       <c r="M8" s="3">
         <v>1600</v>
@@ -792,93 +796,99 @@
         <v>1600</v>
       </c>
       <c r="O8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P8" s="3">
         <v>1800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>700</v>
+      </c>
+      <c r="E9" s="3">
         <v>600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1000</v>
-      </c>
-      <c r="P9" s="3">
-        <v>900</v>
       </c>
       <c r="Q9" s="3">
         <v>900</v>
       </c>
       <c r="R9" s="3">
+        <v>900</v>
+      </c>
+      <c r="S9" s="3">
         <v>1000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -886,61 +896,64 @@
         <v>700</v>
       </c>
       <c r="E10" s="3">
+        <v>700</v>
+      </c>
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>600</v>
-      </c>
-      <c r="R10" s="3">
-        <v>700</v>
       </c>
       <c r="S10" s="3">
         <v>700</v>
       </c>
       <c r="T10" s="3">
+        <v>700</v>
+      </c>
+      <c r="U10" s="3">
         <v>1100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,55 +992,58 @@
         <v>800</v>
       </c>
       <c r="G12" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="H12" s="3">
         <v>1000</v>
       </c>
       <c r="I12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J12" s="3">
         <v>1100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2200</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>1600</v>
       </c>
       <c r="R12" s="3">
         <v>1600</v>
       </c>
       <c r="S12" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="T12" s="3">
         <v>1400</v>
       </c>
       <c r="U12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V12" s="3">
         <v>2300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1119,29 +1139,29 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>300</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>10</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E17" s="3">
         <v>4300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>4400</v>
       </c>
       <c r="I17" s="3">
         <v>4400</v>
       </c>
       <c r="J17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K17" s="3">
         <v>4300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7400</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>7100</v>
       </c>
       <c r="R17" s="3">
         <v>7100</v>
       </c>
       <c r="S17" s="3">
+        <v>7100</v>
+      </c>
+      <c r="T17" s="3">
         <v>7700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5400</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-5700</v>
       </c>
       <c r="T18" s="3">
         <v>-5700</v>
       </c>
       <c r="U18" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="V18" s="3">
         <v>-8000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,11 +1423,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1419,13 +1453,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>100</v>
@@ -1434,7 +1468,7 @@
         <v>100</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
@@ -1442,70 +1476,76 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-5200</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-5500</v>
       </c>
       <c r="T21" s="3">
         <v>-5500</v>
       </c>
       <c r="U21" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="V21" s="3">
         <v>-7900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1513,22 +1553,22 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
       </c>
       <c r="H22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I22" s="3">
         <v>300</v>
       </c>
       <c r="J22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K22" s="3">
         <v>400</v>
@@ -1537,13 +1577,13 @@
         <v>400</v>
       </c>
       <c r="M22" s="3">
+        <v>400</v>
+      </c>
+      <c r="N22" s="3">
         <v>1000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>400</v>
-      </c>
-      <c r="O22" s="3">
-        <v>500</v>
       </c>
       <c r="P22" s="3">
         <v>500</v>
@@ -1555,81 +1595,87 @@
         <v>500</v>
       </c>
       <c r="S22" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T22" s="3">
         <v>700</v>
       </c>
       <c r="U22" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="V22" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="E23" s="3">
         <v>-3000</v>
       </c>
       <c r="F23" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G23" s="3">
         <v>-3300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-6300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-6400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-8600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1643,11 +1689,11 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1673,11 +1719,11 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,8 +1801,11 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1761,61 +1813,64 @@
         <v>-3100</v>
       </c>
       <c r="E26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-6300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-6400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-8500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1823,61 +1878,64 @@
         <v>-3100</v>
       </c>
       <c r="E27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-6300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-6400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-8500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,11 +2203,11 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2163,13 +2233,13 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>-100</v>
@@ -2178,7 +2248,7 @@
         <v>-100</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
@@ -2186,8 +2256,11 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2195,61 +2268,64 @@
         <v>-3100</v>
       </c>
       <c r="E33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-6200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-6300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-6400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-8500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,8 +2386,11 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2319,128 +2398,134 @@
         <v>-3100</v>
       </c>
       <c r="E35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-6200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-6300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-6400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-8500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>64200</v>
+      </c>
+      <c r="E41" s="3">
         <v>67400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>20400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>18100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>20400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>24100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>14600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>16300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>17100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>23700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,256 +2701,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>800</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
-      </c>
-      <c r="E43" s="3">
-        <v>700</v>
       </c>
       <c r="F43" s="3">
         <v>700</v>
       </c>
       <c r="G43" s="3">
+        <v>700</v>
+      </c>
+      <c r="H43" s="3">
         <v>1100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="E44" s="3">
         <v>3500</v>
       </c>
       <c r="F44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G44" s="3">
         <v>3700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>6500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>800</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>700</v>
-      </c>
-      <c r="N45" s="3">
-        <v>1200</v>
       </c>
       <c r="O45" s="3">
         <v>1200</v>
       </c>
       <c r="P45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q45" s="3">
         <v>2000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>69200</v>
+      </c>
+      <c r="E46" s="3">
         <v>71900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>25200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>23300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>19700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>22000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>21100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>25100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>28500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>15200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>15900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>20900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>19400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>22000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>22900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>29300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,25 +3026,28 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>2200</v>
       </c>
       <c r="I48" s="3">
         <v>2200</v>
@@ -2948,19 +3056,19 @@
         <v>2200</v>
       </c>
       <c r="K48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L48" s="3">
         <v>2300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>700</v>
-      </c>
-      <c r="O48" s="3">
-        <v>800</v>
       </c>
       <c r="P48" s="3">
         <v>800</v>
@@ -2969,22 +3077,25 @@
         <v>800</v>
       </c>
       <c r="R48" s="3">
+        <v>800</v>
+      </c>
+      <c r="S48" s="3">
         <v>900</v>
-      </c>
-      <c r="S48" s="3">
-        <v>1100</v>
       </c>
       <c r="T48" s="3">
         <v>1100</v>
       </c>
       <c r="U48" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="V48" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3190,13 +3310,13 @@
         <v>1000</v>
       </c>
       <c r="I52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J52" s="3">
         <v>1100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1000</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1100</v>
       </c>
       <c r="L52" s="3">
         <v>1100</v>
@@ -3205,10 +3325,10 @@
         <v>1100</v>
       </c>
       <c r="N52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O52" s="3">
         <v>1000</v>
-      </c>
-      <c r="O52" s="3">
-        <v>1100</v>
       </c>
       <c r="P52" s="3">
         <v>1100</v>
@@ -3217,7 +3337,7 @@
         <v>1100</v>
       </c>
       <c r="R52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="S52" s="3">
         <v>1200</v>
@@ -3229,10 +3349,13 @@
         <v>1200</v>
       </c>
       <c r="V52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>71700</v>
+      </c>
+      <c r="E54" s="3">
         <v>74600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>28100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>26200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>22700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>25200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>24400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>28400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>32000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>22900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>21500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>24300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>25300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>31800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,108 +3533,112 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>2100</v>
       </c>
       <c r="G57" s="3">
         <v>2100</v>
       </c>
       <c r="H57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I57" s="3">
         <v>2800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3000</v>
-      </c>
-      <c r="K57" s="3">
-        <v>2800</v>
       </c>
       <c r="L57" s="3">
         <v>2800</v>
       </c>
       <c r="M57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N57" s="3">
         <v>2300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3000</v>
-      </c>
-      <c r="U57" s="3">
-        <v>3400</v>
       </c>
       <c r="V57" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>3300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>6400</v>
       </c>
       <c r="P58" s="3">
         <v>6400</v>
@@ -3513,63 +3647,66 @@
         <v>6400</v>
       </c>
       <c r="R58" s="3">
+        <v>6400</v>
+      </c>
+      <c r="S58" s="3">
         <v>5700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>8400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E59" s="3">
         <v>2000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1900</v>
-      </c>
-      <c r="I59" s="3">
-        <v>2000</v>
       </c>
       <c r="J59" s="3">
         <v>2000</v>
       </c>
       <c r="K59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L59" s="3">
         <v>2100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1900</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1300</v>
       </c>
       <c r="N59" s="3">
         <v>1300</v>
       </c>
       <c r="O59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P59" s="3">
         <v>1700</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1500</v>
       </c>
       <c r="Q59" s="3">
         <v>1500</v>
@@ -3587,72 +3724,78 @@
         <v>1500</v>
       </c>
       <c r="V59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E60" s="3">
         <v>4000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>11800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>12800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>12400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3663,93 +3806,96 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>200</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>1500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>10000</v>
-      </c>
-      <c r="S61" s="3">
-        <v>8500</v>
       </c>
       <c r="T61" s="3">
         <v>8500</v>
       </c>
       <c r="U61" s="3">
+        <v>8500</v>
+      </c>
+      <c r="V61" s="3">
         <v>10500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1500</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1600</v>
       </c>
       <c r="F62" s="3">
         <v>1600</v>
       </c>
       <c r="G62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H62" s="3">
         <v>1700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1800</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1900</v>
       </c>
       <c r="J62" s="3">
         <v>1900</v>
       </c>
       <c r="K62" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="L62" s="3">
         <v>2000</v>
       </c>
       <c r="M62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N62" s="3">
         <v>700</v>
-      </c>
-      <c r="N62" s="3">
-        <v>600</v>
       </c>
       <c r="O62" s="3">
         <v>600</v>
@@ -3758,13 +3904,13 @@
         <v>600</v>
       </c>
       <c r="Q62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="R62" s="3">
         <v>500</v>
       </c>
       <c r="S62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T62" s="3">
         <v>600</v>
@@ -3773,10 +3919,13 @@
         <v>600</v>
       </c>
       <c r="V62" s="3">
+        <v>600</v>
+      </c>
+      <c r="W62" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E66" s="3">
         <v>5500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18300</v>
-      </c>
-      <c r="P66" s="3">
-        <v>19200</v>
       </c>
       <c r="Q66" s="3">
         <v>19200</v>
       </c>
       <c r="R66" s="3">
+        <v>19200</v>
+      </c>
+      <c r="S66" s="3">
         <v>20100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>20900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>21900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>23500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-187600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-184500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-181400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-178500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-175200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-172300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-168500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-164900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-161500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-156900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-152900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-147900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-143400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-137600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-131200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-125100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-119200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-112900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-106500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-97900</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>66100</v>
+      </c>
+      <c r="E76" s="3">
         <v>69000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>16800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-5200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,75 +4856,81 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4743,61 +4938,64 @@
         <v>-3100</v>
       </c>
       <c r="E81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-6200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-6300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-6400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-8500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4868,7 +5067,7 @@
         <v>100</v>
       </c>
       <c r="R83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S83" s="3">
         <v>200</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5201,61 +5418,64 @@
         <v>-3200</v>
       </c>
       <c r="E89" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-5100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-6100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-7300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-6700</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5290,19 +5511,19 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>10</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>10</v>
@@ -5310,20 +5531,20 @@
       <c r="L91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>10</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5476,11 +5706,11 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -5490,14 +5720,14 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>10</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>50200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>6600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>18900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>6900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>7100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>18600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E102" s="3">
         <v>47100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>15200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-6600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>11300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RWLK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RWLK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>RWLK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,132 +665,136 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>800</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1200</v>
       </c>
       <c r="K8" s="3">
         <v>1200</v>
       </c>
       <c r="L8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M8" s="3">
         <v>900</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1600</v>
       </c>
       <c r="N8" s="3">
         <v>1600</v>
@@ -799,161 +803,170 @@
         <v>1600</v>
       </c>
       <c r="P8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>800</v>
+      </c>
+      <c r="E9" s="3">
         <v>700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>900</v>
       </c>
       <c r="R9" s="3">
         <v>900</v>
       </c>
       <c r="S9" s="3">
+        <v>900</v>
+      </c>
+      <c r="T9" s="3">
         <v>1000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="E10" s="3">
         <v>700</v>
       </c>
       <c r="F10" s="3">
+        <v>700</v>
+      </c>
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>600</v>
-      </c>
-      <c r="S10" s="3">
-        <v>700</v>
       </c>
       <c r="T10" s="3">
         <v>700</v>
       </c>
       <c r="U10" s="3">
+        <v>700</v>
+      </c>
+      <c r="V10" s="3">
         <v>1100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,13 +990,14 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E12" s="3">
         <v>800</v>
@@ -995,55 +1009,58 @@
         <v>800</v>
       </c>
       <c r="H12" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="I12" s="3">
         <v>1000</v>
       </c>
       <c r="J12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K12" s="3">
         <v>1100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2200</v>
-      </c>
-      <c r="R12" s="3">
-        <v>1600</v>
       </c>
       <c r="S12" s="3">
         <v>1600</v>
       </c>
       <c r="T12" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="U12" s="3">
         <v>1400</v>
       </c>
       <c r="V12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W12" s="3">
         <v>2300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1142,29 +1162,29 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>300</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1285,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1268,129 +1295,135 @@
         <v>4600</v>
       </c>
       <c r="E17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F17" s="3">
         <v>4300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>4400</v>
       </c>
       <c r="J17" s="3">
         <v>4400</v>
       </c>
       <c r="K17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="L17" s="3">
         <v>4300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7400</v>
-      </c>
-      <c r="R17" s="3">
-        <v>7100</v>
       </c>
       <c r="S17" s="3">
         <v>7100</v>
       </c>
       <c r="T17" s="3">
+        <v>7100</v>
+      </c>
+      <c r="U17" s="3">
         <v>7700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-5400</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-5700</v>
       </c>
       <c r="U18" s="3">
         <v>-5700</v>
       </c>
       <c r="V18" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="W18" s="3">
         <v>-8000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,23 +1447,24 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1456,13 +1490,13 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
         <v>100</v>
@@ -1471,7 +1505,7 @@
         <v>100</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
@@ -1479,73 +1513,79 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-5400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-5200</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-5500</v>
       </c>
       <c r="U21" s="3">
         <v>-5500</v>
       </c>
       <c r="V21" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="W21" s="3">
         <v>-7900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1556,22 +1596,22 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
       </c>
       <c r="I22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J22" s="3">
         <v>300</v>
       </c>
       <c r="K22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L22" s="3">
         <v>400</v>
@@ -1580,13 +1620,13 @@
         <v>400</v>
       </c>
       <c r="N22" s="3">
+        <v>400</v>
+      </c>
+      <c r="O22" s="3">
         <v>1000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>400</v>
-      </c>
-      <c r="P22" s="3">
-        <v>500</v>
       </c>
       <c r="Q22" s="3">
         <v>500</v>
@@ -1598,84 +1638,90 @@
         <v>500</v>
       </c>
       <c r="T22" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="U22" s="3">
         <v>700</v>
       </c>
       <c r="V22" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="W22" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3100</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-3000</v>
       </c>
       <c r="F23" s="3">
         <v>-3000</v>
       </c>
       <c r="G23" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="H23" s="3">
         <v>-3300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-6100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-6300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-6400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-8600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1692,11 +1738,11 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1722,11 +1768,11 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3100</v>
+        <v>-2700</v>
       </c>
       <c r="E26" s="3">
         <v>-3100</v>
       </c>
       <c r="F26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-2900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-6200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-6300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-6400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-8500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3100</v>
+        <v>-2700</v>
       </c>
       <c r="E27" s="3">
         <v>-3100</v>
       </c>
       <c r="F27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-2900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-6200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-6300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-6400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-8500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,23 +2261,26 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2236,13 +2306,13 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>-100</v>
@@ -2251,7 +2321,7 @@
         <v>-100</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
@@ -2259,73 +2329,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3100</v>
+        <v>-2700</v>
       </c>
       <c r="E33" s="3">
         <v>-3100</v>
       </c>
       <c r="F33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-2900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-6300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-6200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-6300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-6400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-8500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3100</v>
+        <v>-2700</v>
       </c>
       <c r="E35" s="3">
         <v>-3100</v>
       </c>
       <c r="F35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-2900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-6300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-6200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-6300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-6400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-8500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>91200</v>
+      </c>
+      <c r="E41" s="3">
         <v>64200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>67400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>20400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>18100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>20400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>24100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>14600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>12900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>16300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>17100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>23700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,138 +2794,147 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E43" s="3">
         <v>800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>500</v>
-      </c>
-      <c r="F43" s="3">
-        <v>700</v>
       </c>
       <c r="G43" s="3">
         <v>700</v>
       </c>
       <c r="H43" s="3">
+        <v>700</v>
+      </c>
+      <c r="I43" s="3">
         <v>1100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E44" s="3">
         <v>3300</v>
-      </c>
-      <c r="E44" s="3">
-        <v>3500</v>
       </c>
       <c r="F44" s="3">
         <v>3500</v>
       </c>
       <c r="G44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H44" s="3">
         <v>3700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>6500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2843,129 +2942,135 @@
         <v>800</v>
       </c>
       <c r="E45" s="3">
+        <v>800</v>
+      </c>
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>700</v>
-      </c>
-      <c r="O45" s="3">
-        <v>1200</v>
       </c>
       <c r="P45" s="3">
         <v>1200</v>
       </c>
       <c r="Q45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R45" s="3">
         <v>2000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>96300</v>
+      </c>
+      <c r="E46" s="3">
         <v>69200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>71900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>25200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>23300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>19700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>22000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>21100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>25100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>28500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>15200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>15900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>20900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>19400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>22000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>22900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>29300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,28 +3134,31 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E48" s="3">
         <v>1500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>2200</v>
       </c>
       <c r="J48" s="3">
         <v>2200</v>
@@ -3059,19 +3167,19 @@
         <v>2200</v>
       </c>
       <c r="L48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M48" s="3">
         <v>2300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>700</v>
-      </c>
-      <c r="P48" s="3">
-        <v>800</v>
       </c>
       <c r="Q48" s="3">
         <v>800</v>
@@ -3080,22 +3188,25 @@
         <v>800</v>
       </c>
       <c r="S48" s="3">
+        <v>800</v>
+      </c>
+      <c r="T48" s="3">
         <v>900</v>
-      </c>
-      <c r="T48" s="3">
-        <v>1100</v>
       </c>
       <c r="U48" s="3">
         <v>1100</v>
       </c>
       <c r="V48" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="W48" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,13 +3406,16 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E52" s="3">
         <v>1000</v>
@@ -3313,13 +3433,13 @@
         <v>1000</v>
       </c>
       <c r="J52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K52" s="3">
         <v>1100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1000</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1100</v>
       </c>
       <c r="M52" s="3">
         <v>1100</v>
@@ -3328,10 +3448,10 @@
         <v>1100</v>
       </c>
       <c r="O52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P52" s="3">
         <v>1000</v>
-      </c>
-      <c r="P52" s="3">
-        <v>1100</v>
       </c>
       <c r="Q52" s="3">
         <v>1100</v>
@@ -3340,7 +3460,7 @@
         <v>1100</v>
       </c>
       <c r="S52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T52" s="3">
         <v>1200</v>
@@ -3352,10 +3472,13 @@
         <v>1200</v>
       </c>
       <c r="W52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>98700</v>
+      </c>
+      <c r="E54" s="3">
         <v>71700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>74600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>28100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>26200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>22700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>25200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>24400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>32000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>22900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>21500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>24300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>25300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>31800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,73 +3664,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>2100</v>
       </c>
       <c r="H57" s="3">
         <v>2100</v>
       </c>
       <c r="I57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J57" s="3">
         <v>2800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3000</v>
-      </c>
-      <c r="L57" s="3">
-        <v>2800</v>
       </c>
       <c r="M57" s="3">
         <v>2800</v>
       </c>
       <c r="N57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O57" s="3">
         <v>2300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3000</v>
-      </c>
-      <c r="V57" s="3">
-        <v>3400</v>
       </c>
       <c r="W57" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3610,38 +3744,38 @@
       <c r="E58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>3300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7000</v>
-      </c>
-      <c r="P58" s="3">
-        <v>6400</v>
       </c>
       <c r="Q58" s="3">
         <v>6400</v>
@@ -3650,66 +3784,69 @@
         <v>6400</v>
       </c>
       <c r="S58" s="3">
+        <v>6400</v>
+      </c>
+      <c r="T58" s="3">
         <v>5700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>8400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>7500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E59" s="3">
         <v>2100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1900</v>
-      </c>
-      <c r="J59" s="3">
-        <v>2000</v>
       </c>
       <c r="K59" s="3">
         <v>2000</v>
       </c>
       <c r="L59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M59" s="3">
         <v>2100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1900</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1300</v>
       </c>
       <c r="O59" s="3">
         <v>1300</v>
       </c>
       <c r="P59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1500</v>
       </c>
       <c r="R59" s="3">
         <v>1500</v>
@@ -3727,75 +3864,81 @@
         <v>1500</v>
       </c>
       <c r="W59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E60" s="3">
         <v>4200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>11800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>12800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>12400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3809,96 +3952,99 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>200</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>1500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>10000</v>
-      </c>
-      <c r="T61" s="3">
-        <v>8500</v>
       </c>
       <c r="U61" s="3">
         <v>8500</v>
       </c>
       <c r="V61" s="3">
+        <v>8500</v>
+      </c>
+      <c r="W61" s="3">
         <v>10500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E62" s="3">
         <v>1400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1500</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1600</v>
       </c>
       <c r="G62" s="3">
         <v>1600</v>
       </c>
       <c r="H62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I62" s="3">
         <v>1700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1800</v>
-      </c>
-      <c r="J62" s="3">
-        <v>1900</v>
       </c>
       <c r="K62" s="3">
         <v>1900</v>
       </c>
       <c r="L62" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="M62" s="3">
         <v>2000</v>
       </c>
       <c r="N62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O62" s="3">
         <v>700</v>
-      </c>
-      <c r="O62" s="3">
-        <v>600</v>
       </c>
       <c r="P62" s="3">
         <v>600</v>
@@ -3907,13 +4053,13 @@
         <v>600</v>
       </c>
       <c r="R62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="S62" s="3">
         <v>500</v>
       </c>
       <c r="T62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="U62" s="3">
         <v>600</v>
@@ -3922,10 +4068,13 @@
         <v>600</v>
       </c>
       <c r="W62" s="3">
+        <v>600</v>
+      </c>
+      <c r="X62" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E66" s="3">
         <v>5600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>18300</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>19200</v>
       </c>
       <c r="R66" s="3">
         <v>19200</v>
       </c>
       <c r="S66" s="3">
+        <v>19200</v>
+      </c>
+      <c r="T66" s="3">
         <v>20100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>20900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>21900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>23500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-190300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-187600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-184500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-181400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-178500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-175200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-172300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-168500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-164900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-161500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-156900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-152900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-147900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-143400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-137600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-131200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-125100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-119200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-112900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-106500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-97900</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E76" s="3">
         <v>66100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>69000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>16800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-5200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>8300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3100</v>
+        <v>-2700</v>
       </c>
       <c r="E81" s="3">
         <v>-3100</v>
       </c>
       <c r="F81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-2900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-6300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-6200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-6300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-6400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-8500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5070,7 +5269,7 @@
         <v>100</v>
       </c>
       <c r="S83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T83" s="3">
         <v>200</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3200</v>
+        <v>-2600</v>
       </c>
       <c r="E89" s="3">
         <v>-3200</v>
       </c>
       <c r="F89" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-2500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-5800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-5100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-6100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-7300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-6700</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5514,19 +5735,19 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>10</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>10</v>
@@ -5534,20 +5755,20 @@
       <c r="M91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>10</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5709,11 +5939,11 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -5723,14 +5953,14 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>10</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>29600</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>50200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>6600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>18900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>6900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>7100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>18600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>47100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>15200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-6600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>11300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-3300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RWLK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RWLK_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,142 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E8" s="3">
         <v>2000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>800</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1200</v>
       </c>
       <c r="L8" s="3">
         <v>1200</v>
       </c>
       <c r="M8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N8" s="3">
         <v>900</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1600</v>
       </c>
       <c r="O8" s="3">
         <v>1600</v>
@@ -806,167 +809,176 @@
         <v>1600</v>
       </c>
       <c r="Q8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R8" s="3">
         <v>1800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>900</v>
+      </c>
+      <c r="E9" s="3">
         <v>800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1000</v>
-      </c>
-      <c r="R9" s="3">
-        <v>900</v>
       </c>
       <c r="S9" s="3">
         <v>900</v>
       </c>
       <c r="T9" s="3">
+        <v>900</v>
+      </c>
+      <c r="U9" s="3">
         <v>1000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1200</v>
-      </c>
-      <c r="E10" s="3">
-        <v>700</v>
       </c>
       <c r="F10" s="3">
         <v>700</v>
       </c>
       <c r="G10" s="3">
+        <v>700</v>
+      </c>
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>600</v>
-      </c>
-      <c r="T10" s="3">
-        <v>700</v>
       </c>
       <c r="U10" s="3">
         <v>700</v>
       </c>
       <c r="V10" s="3">
+        <v>700</v>
+      </c>
+      <c r="W10" s="3">
         <v>1100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,16 +1003,17 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>700</v>
+      </c>
+      <c r="E12" s="3">
         <v>600</v>
-      </c>
-      <c r="E12" s="3">
-        <v>800</v>
       </c>
       <c r="F12" s="3">
         <v>800</v>
@@ -1012,55 +1025,58 @@
         <v>800</v>
       </c>
       <c r="I12" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="J12" s="3">
         <v>1000</v>
       </c>
       <c r="K12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L12" s="3">
         <v>1100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2200</v>
-      </c>
-      <c r="S12" s="3">
-        <v>1600</v>
       </c>
       <c r="T12" s="3">
         <v>1600</v>
       </c>
       <c r="U12" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="V12" s="3">
         <v>1400</v>
       </c>
       <c r="W12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X12" s="3">
         <v>2300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1165,29 +1184,29 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>300</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>10</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4600</v>
+        <v>5100</v>
       </c>
       <c r="E17" s="3">
         <v>4600</v>
       </c>
       <c r="F17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G17" s="3">
         <v>4300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>4400</v>
       </c>
       <c r="K17" s="3">
         <v>4400</v>
       </c>
       <c r="L17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="M17" s="3">
         <v>4300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7400</v>
-      </c>
-      <c r="S17" s="3">
-        <v>7100</v>
       </c>
       <c r="T17" s="3">
         <v>7100</v>
       </c>
       <c r="U17" s="3">
+        <v>7100</v>
+      </c>
+      <c r="V17" s="3">
         <v>7700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-5600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-5400</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-5700</v>
       </c>
       <c r="V18" s="3">
         <v>-5700</v>
       </c>
       <c r="W18" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="X18" s="3">
         <v>-8000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,26 +1480,27 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1493,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>100</v>
@@ -1508,7 +1541,7 @@
         <v>100</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
@@ -1516,76 +1549,82 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-5700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-5400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-5200</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-5500</v>
       </c>
       <c r="V21" s="3">
         <v>-5500</v>
       </c>
       <c r="W21" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="X21" s="3">
         <v>-7900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1599,22 +1638,22 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>200</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
       </c>
       <c r="J22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>300</v>
       </c>
       <c r="L22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M22" s="3">
         <v>400</v>
@@ -1623,13 +1662,13 @@
         <v>400</v>
       </c>
       <c r="O22" s="3">
+        <v>400</v>
+      </c>
+      <c r="P22" s="3">
         <v>1000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>400</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>500</v>
       </c>
       <c r="R22" s="3">
         <v>500</v>
@@ -1641,92 +1680,98 @@
         <v>500</v>
       </c>
       <c r="U22" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="V22" s="3">
         <v>700</v>
       </c>
       <c r="W22" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="X22" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-3000</v>
       </c>
       <c r="G23" s="3">
         <v>-3000</v>
       </c>
       <c r="H23" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I23" s="3">
         <v>-3300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-6300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-6100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-6300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-6400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-8600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1741,11 +1786,11 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1771,11 +1816,11 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2700</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-3100</v>
       </c>
       <c r="F26" s="3">
         <v>-3100</v>
       </c>
       <c r="G26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-2900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-6300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-6200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-5800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-6300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-6400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-8500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2700</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-3100</v>
       </c>
       <c r="F27" s="3">
         <v>-3100</v>
       </c>
       <c r="G27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-2900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-6300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-6200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-5800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-6300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-6400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-8500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,26 +2330,29 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2309,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>-100</v>
@@ -2324,7 +2393,7 @@
         <v>-100</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
@@ -2332,76 +2401,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2700</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-3100</v>
       </c>
       <c r="F33" s="3">
         <v>-3100</v>
       </c>
       <c r="G33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-2900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-6300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-6200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-5800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-6300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-6400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-8500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2700</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-3100</v>
       </c>
       <c r="F35" s="3">
         <v>-3100</v>
       </c>
       <c r="G35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-2900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-6300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-6200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-5800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-6300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-6400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-8500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>88300</v>
+      </c>
+      <c r="E41" s="3">
         <v>91200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>64200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>67400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>20400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>18100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>20400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>24100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>14600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>12900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>16300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>17100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>23700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,280 +2886,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
         <v>1300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>500</v>
-      </c>
-      <c r="G43" s="3">
-        <v>700</v>
       </c>
       <c r="H43" s="3">
         <v>700</v>
       </c>
       <c r="I43" s="3">
+        <v>700</v>
+      </c>
+      <c r="J43" s="3">
         <v>1100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3300</v>
-      </c>
-      <c r="F44" s="3">
-        <v>3500</v>
       </c>
       <c r="G44" s="3">
         <v>3500</v>
       </c>
       <c r="H44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I44" s="3">
         <v>3700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>6500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E45" s="3">
         <v>800</v>
       </c>
       <c r="F45" s="3">
+        <v>800</v>
+      </c>
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>700</v>
-      </c>
-      <c r="P45" s="3">
-        <v>1200</v>
       </c>
       <c r="Q45" s="3">
         <v>1200</v>
       </c>
       <c r="R45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S45" s="3">
         <v>2000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>92500</v>
+      </c>
+      <c r="E46" s="3">
         <v>96300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>69200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>71900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>25200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>23300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>19700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>22000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>21100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>25100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>28500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>13200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>15200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>15900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>20900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>19400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>22000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>22900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>29300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,31 +3241,34 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E48" s="3">
         <v>1300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>2200</v>
       </c>
       <c r="K48" s="3">
         <v>2200</v>
@@ -3170,19 +3277,19 @@
         <v>2200</v>
       </c>
       <c r="M48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N48" s="3">
         <v>2300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>700</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>800</v>
       </c>
       <c r="R48" s="3">
         <v>800</v>
@@ -3191,22 +3298,25 @@
         <v>800</v>
       </c>
       <c r="T48" s="3">
+        <v>800</v>
+      </c>
+      <c r="U48" s="3">
         <v>900</v>
-      </c>
-      <c r="U48" s="3">
-        <v>1100</v>
       </c>
       <c r="V48" s="3">
         <v>1100</v>
       </c>
       <c r="W48" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="X48" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3418,7 +3537,7 @@
         <v>1100</v>
       </c>
       <c r="E52" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F52" s="3">
         <v>1000</v>
@@ -3436,13 +3555,13 @@
         <v>1000</v>
       </c>
       <c r="K52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L52" s="3">
         <v>1100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1000</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1100</v>
       </c>
       <c r="N52" s="3">
         <v>1100</v>
@@ -3451,10 +3570,10 @@
         <v>1100</v>
       </c>
       <c r="P52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>1100</v>
       </c>
       <c r="R52" s="3">
         <v>1100</v>
@@ -3463,7 +3582,7 @@
         <v>1100</v>
       </c>
       <c r="T52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="U52" s="3">
         <v>1200</v>
@@ -3475,10 +3594,13 @@
         <v>1200</v>
       </c>
       <c r="X52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>94800</v>
+      </c>
+      <c r="E54" s="3">
         <v>98700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>71700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>74600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>28100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>26200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>22700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>25200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>24400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>32000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>11900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>22900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>21500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>24300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>25300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>31800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,81 +3794,85 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>2100</v>
       </c>
       <c r="I57" s="3">
         <v>2100</v>
       </c>
       <c r="J57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K57" s="3">
         <v>2800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3000</v>
-      </c>
-      <c r="M57" s="3">
-        <v>2800</v>
       </c>
       <c r="N57" s="3">
         <v>2800</v>
       </c>
       <c r="O57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="P57" s="3">
         <v>2300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3000</v>
-      </c>
-      <c r="W57" s="3">
-        <v>3400</v>
       </c>
       <c r="X57" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>10</v>
+      <c r="D58" s="3">
+        <v>0</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>10</v>
@@ -3747,38 +3880,38 @@
       <c r="F58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>3300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7000</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>6400</v>
       </c>
       <c r="R58" s="3">
         <v>6400</v>
@@ -3787,69 +3920,72 @@
         <v>6400</v>
       </c>
       <c r="T58" s="3">
+        <v>6400</v>
+      </c>
+      <c r="U58" s="3">
         <v>5700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>8400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>7500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E59" s="3">
         <v>2400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1900</v>
-      </c>
-      <c r="K59" s="3">
-        <v>2000</v>
       </c>
       <c r="L59" s="3">
         <v>2000</v>
       </c>
       <c r="M59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N59" s="3">
         <v>2100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1900</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1300</v>
       </c>
       <c r="P59" s="3">
         <v>1300</v>
       </c>
       <c r="Q59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R59" s="3">
         <v>1700</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1500</v>
       </c>
       <c r="S59" s="3">
         <v>1500</v>
@@ -3867,78 +4003,84 @@
         <v>1500</v>
       </c>
       <c r="X59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Y59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>11800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>12800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>12400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3955,58 +4097,61 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>200</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>1500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>10000</v>
-      </c>
-      <c r="U61" s="3">
-        <v>8500</v>
       </c>
       <c r="V61" s="3">
         <v>8500</v>
       </c>
       <c r="W61" s="3">
+        <v>8500</v>
+      </c>
+      <c r="X61" s="3">
         <v>10500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4014,40 +4159,40 @@
         <v>1300</v>
       </c>
       <c r="E62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F62" s="3">
         <v>1400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1500</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1600</v>
       </c>
       <c r="H62" s="3">
         <v>1600</v>
       </c>
       <c r="I62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J62" s="3">
         <v>1700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1800</v>
-      </c>
-      <c r="K62" s="3">
-        <v>1900</v>
       </c>
       <c r="L62" s="3">
         <v>1900</v>
       </c>
       <c r="M62" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="N62" s="3">
         <v>2000</v>
       </c>
       <c r="O62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P62" s="3">
         <v>700</v>
-      </c>
-      <c r="P62" s="3">
-        <v>600</v>
       </c>
       <c r="Q62" s="3">
         <v>600</v>
@@ -4056,13 +4201,13 @@
         <v>600</v>
       </c>
       <c r="S62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T62" s="3">
         <v>500</v>
       </c>
       <c r="U62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="V62" s="3">
         <v>600</v>
@@ -4071,10 +4216,13 @@
         <v>600</v>
       </c>
       <c r="X62" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y62" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E66" s="3">
         <v>5700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>18300</v>
-      </c>
-      <c r="R66" s="3">
-        <v>19200</v>
       </c>
       <c r="S66" s="3">
         <v>19200</v>
       </c>
       <c r="T66" s="3">
+        <v>19200</v>
+      </c>
+      <c r="U66" s="3">
         <v>20100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>20900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>21900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>23500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-194200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-190300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-187600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-184500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-181400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-178500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-175200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-172300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-168500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-164900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-161500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-156900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-152900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-147900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-143400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-137600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-131200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-125100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-119200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-112900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-106500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-97900</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>89400</v>
+      </c>
+      <c r="E76" s="3">
         <v>93000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>66100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>69000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>21800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>16800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>8300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2700</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-3100</v>
       </c>
       <c r="F81" s="3">
         <v>-3100</v>
       </c>
       <c r="G81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-2900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-6300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-6200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-5800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-6300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-6400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-8500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5272,7 +5470,7 @@
         <v>100</v>
       </c>
       <c r="T83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U83" s="3">
         <v>200</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5635,67 +5851,70 @@
         <v>-2600</v>
       </c>
       <c r="E89" s="3">
-        <v>-3200</v>
+        <v>-2600</v>
       </c>
       <c r="F89" s="3">
         <v>-3200</v>
       </c>
       <c r="G89" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-2500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-5400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-5800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-5100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-6100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-7300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-6700</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5738,19 +5958,19 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>10</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>10</v>
@@ -5758,20 +5978,20 @@
       <c r="N91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>10</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5942,11 +6171,11 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -5956,14 +6185,14 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>10</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6532,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
         <v>29600</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>50200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>18900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>6900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>7100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>18600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E102" s="3">
         <v>27000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>47100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>15200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-6600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>11300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-3300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RWLK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RWLK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>RWLK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,222 +665,236 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>900</v>
+      </c>
+      <c r="F8" s="3">
         <v>1200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>900</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1600</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1600</v>
       </c>
       <c r="Q8" s="3">
         <v>1600</v>
       </c>
       <c r="R8" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="S8" s="3">
         <v>1600</v>
       </c>
       <c r="T8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="U8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V8" s="3">
         <v>1500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>2000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>2500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>600</v>
+      </c>
+      <c r="F9" s="3">
         <v>900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>800</v>
-      </c>
-      <c r="I9" s="3">
-        <v>400</v>
-      </c>
-      <c r="J9" s="3">
-        <v>600</v>
       </c>
       <c r="K9" s="3">
         <v>400</v>
       </c>
       <c r="L9" s="3">
+        <v>600</v>
+      </c>
+      <c r="M9" s="3">
+        <v>400</v>
+      </c>
+      <c r="N9" s="3">
         <v>500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>700</v>
-      </c>
-      <c r="P9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>900</v>
       </c>
       <c r="R9" s="3">
         <v>1000</v>
@@ -889,96 +903,108 @@
         <v>900</v>
       </c>
       <c r="T9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U9" s="3">
         <v>900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
+        <v>900</v>
+      </c>
+      <c r="W9" s="3">
         <v>1000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>1500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>1700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>800</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
+        <v>300</v>
+      </c>
+      <c r="G10" s="3">
         <v>1200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>600</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>700</v>
-      </c>
-      <c r="R10" s="3">
-        <v>800</v>
       </c>
       <c r="S10" s="3">
         <v>700</v>
       </c>
       <c r="T10" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="U10" s="3">
         <v>700</v>
       </c>
       <c r="V10" s="3">
+        <v>600</v>
+      </c>
+      <c r="W10" s="3">
         <v>700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y10" s="3">
         <v>1100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>-100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,22 +1030,24 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>900</v>
+      </c>
+      <c r="F12" s="3">
         <v>700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>600</v>
-      </c>
-      <c r="F12" s="3">
-        <v>800</v>
-      </c>
-      <c r="G12" s="3">
-        <v>800</v>
       </c>
       <c r="H12" s="3">
         <v>800</v>
@@ -1028,55 +1056,61 @@
         <v>800</v>
       </c>
       <c r="J12" s="3">
+        <v>800</v>
+      </c>
+      <c r="K12" s="3">
+        <v>800</v>
+      </c>
+      <c r="L12" s="3">
         <v>1000</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1100</v>
       </c>
       <c r="M12" s="3">
         <v>1000</v>
       </c>
       <c r="N12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P12" s="3">
         <v>1900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>1400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>1700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>1600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>1900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>2200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>1600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>1600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>1400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>1400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>2300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,8 +1180,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1187,38 +1227,44 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>300</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F17" s="3">
         <v>5100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>4600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>4600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>4300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>4000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>4400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>5100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>5200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>5600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>5700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>7000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>7400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>7100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>7100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>7700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>8200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>9600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-2600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-3200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-3000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-3100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-3600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-3200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-3100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-4200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-3600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-4100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-5200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-5800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-5600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-5400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-5700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-5700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-8000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,32 +1547,34 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1529,110 +1597,122 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>100</v>
-      </c>
       <c r="U20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V20" s="3">
         <v>100</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-2600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-3100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-2800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-3000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-3500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-3100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-3000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-4100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-3500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-4000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-5200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-5700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-5400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-5200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-5500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-5500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-7900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1641,40 +1721,40 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>300</v>
-      </c>
-      <c r="M22" s="3">
-        <v>400</v>
-      </c>
-      <c r="N22" s="3">
-        <v>400</v>
       </c>
       <c r="O22" s="3">
         <v>400</v>
       </c>
       <c r="P22" s="3">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q22" s="3">
         <v>400</v>
       </c>
       <c r="R22" s="3">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="S22" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T22" s="3">
         <v>500</v>
@@ -1683,102 +1763,114 @@
         <v>500</v>
       </c>
       <c r="V22" s="3">
+        <v>500</v>
+      </c>
+      <c r="W22" s="3">
+        <v>500</v>
+      </c>
+      <c r="X22" s="3">
         <v>700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-3100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-3000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-3300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-3800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-3600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-3400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-4600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-4000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-4500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-5800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-6300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-6100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-5800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-6300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-6400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-8600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1789,14 +1881,14 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1819,14 +1911,14 @@
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-3100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-3100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-3300</v>
       </c>
       <c r="J26" s="3">
         <v>-2900</v>
       </c>
       <c r="K26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="M26" s="3">
         <v>-3800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-3600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-3400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-4600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-4000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-4500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-5800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-6300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-6200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-5800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-6300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-6400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-8500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-3100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-3100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-3300</v>
       </c>
       <c r="J27" s="3">
         <v>-2900</v>
       </c>
       <c r="K27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="M27" s="3">
         <v>-3800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-3600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-3400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-4600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-4000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-4500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-5800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-6300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-6200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-5800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-6300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-6400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-8500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,32 +2467,38 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2381,102 +2521,114 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-100</v>
-      </c>
       <c r="U32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V32" s="3">
         <v>-100</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-3100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-3100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-3300</v>
       </c>
       <c r="J33" s="3">
         <v>-2900</v>
       </c>
       <c r="K33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="M33" s="3">
         <v>-3800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-3600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-3400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-4600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-4000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-4500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-5800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-6300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-6200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-5800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-6300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-6400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-8500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-3100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-3100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-3300</v>
       </c>
       <c r="J35" s="3">
         <v>-2900</v>
       </c>
       <c r="K35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="M35" s="3">
         <v>-3800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-3600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-3400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-4600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-4000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-4500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-5800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-6300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-6200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-5800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-6300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-6400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-8500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2919,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>78800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>82600</v>
+      </c>
+      <c r="F41" s="3">
         <v>88300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>91200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>64200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>67400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>20400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>18100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>14100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>16600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>16300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>20400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>24100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>8900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>9500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>5200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>9100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>8800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>14600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>12900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>16300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>17100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>23700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,292 +3069,322 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>900</v>
+      </c>
+      <c r="E43" s="3">
         <v>600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
+        <v>600</v>
+      </c>
+      <c r="G43" s="3">
         <v>1300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>700</v>
-      </c>
-      <c r="I43" s="3">
-        <v>700</v>
-      </c>
-      <c r="J43" s="3">
-        <v>1100</v>
       </c>
       <c r="K43" s="3">
         <v>700</v>
       </c>
       <c r="L43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M43" s="3">
+        <v>700</v>
+      </c>
+      <c r="N43" s="3">
         <v>800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1600</v>
-      </c>
-      <c r="T43" s="3">
-        <v>1100</v>
-      </c>
-      <c r="U43" s="3">
-        <v>1300</v>
       </c>
       <c r="V43" s="3">
         <v>1100</v>
       </c>
       <c r="W43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y43" s="3">
         <v>1400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>1300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F44" s="3">
         <v>3000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>3100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>3300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>3500</v>
-      </c>
-      <c r="H44" s="3">
-        <v>3500</v>
-      </c>
-      <c r="I44" s="3">
-        <v>3700</v>
       </c>
       <c r="J44" s="3">
         <v>3500</v>
       </c>
       <c r="K44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="L44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="M44" s="3">
         <v>3300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>3100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>3000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>2700</v>
-      </c>
-      <c r="O44" s="3">
-        <v>2500</v>
-      </c>
-      <c r="P44" s="3">
-        <v>2200</v>
       </c>
       <c r="Q44" s="3">
         <v>2500</v>
       </c>
       <c r="R44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="S44" s="3">
+        <v>2500</v>
+      </c>
+      <c r="T44" s="3">
         <v>3000</v>
-      </c>
-      <c r="S44" s="3">
-        <v>3500</v>
-      </c>
-      <c r="T44" s="3">
-        <v>3600</v>
       </c>
       <c r="U44" s="3">
         <v>3500</v>
       </c>
       <c r="V44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="W44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="X44" s="3">
         <v>3400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>3000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>6500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>2000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>1600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>1700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>1300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>1400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>1100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>83800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>87800</v>
+      </c>
+      <c r="F46" s="3">
         <v>92500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>96300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>69200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>71900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>25200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>23300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>19700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>22000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>21100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>25100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>28500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>13400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>13200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>10100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>15200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>15900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>20900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>19400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>22000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>22900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>29300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,79 +3454,91 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F48" s="3">
         <v>1200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2000</v>
-      </c>
-      <c r="K48" s="3">
-        <v>2200</v>
-      </c>
-      <c r="L48" s="3">
-        <v>2200</v>
       </c>
       <c r="M48" s="3">
         <v>2200</v>
       </c>
       <c r="N48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P48" s="3">
         <v>2300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>700</v>
-      </c>
-      <c r="R48" s="3">
-        <v>800</v>
-      </c>
-      <c r="S48" s="3">
-        <v>800</v>
       </c>
       <c r="T48" s="3">
         <v>800</v>
       </c>
       <c r="U48" s="3">
+        <v>800</v>
+      </c>
+      <c r="V48" s="3">
+        <v>800</v>
+      </c>
+      <c r="W48" s="3">
         <v>900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,22 +3762,28 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E52" s="3">
         <v>1100</v>
       </c>
       <c r="F52" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G52" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H52" s="3">
         <v>1000</v>
@@ -3558,7 +3798,7 @@
         <v>1000</v>
       </c>
       <c r="L52" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="M52" s="3">
         <v>1000</v>
@@ -3567,28 +3807,28 @@
         <v>1100</v>
       </c>
       <c r="O52" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="P52" s="3">
         <v>1100</v>
       </c>
       <c r="Q52" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="R52" s="3">
         <v>1100</v>
       </c>
       <c r="S52" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T52" s="3">
         <v>1100</v>
       </c>
       <c r="U52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="V52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="W52" s="3">
         <v>1200</v>
@@ -3597,10 +3837,16 @@
         <v>1200</v>
       </c>
       <c r="Y52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AA52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>85800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>90000</v>
+      </c>
+      <c r="F54" s="3">
         <v>94800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>98700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>71700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>74600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>28100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>26200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>22700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>25200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>24400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>28400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>32000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>17000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>15000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>11900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>17000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>17700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>22900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>21500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>24300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>25300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>31800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,203 +4055,217 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F57" s="3">
         <v>1400</v>
-      </c>
-      <c r="E57" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F57" s="3">
-        <v>2100</v>
       </c>
       <c r="G57" s="3">
         <v>2000</v>
       </c>
       <c r="H57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J57" s="3">
         <v>2300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2800</v>
-      </c>
-      <c r="O57" s="3">
-        <v>2800</v>
-      </c>
-      <c r="P57" s="3">
-        <v>2300</v>
       </c>
       <c r="Q57" s="3">
         <v>2800</v>
       </c>
       <c r="R57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="S57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="T57" s="3">
         <v>3000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>2900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>2400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>2900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>3000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>3400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>10</v>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>3300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>4500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>5700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>5400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>4400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>3500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>7000</v>
-      </c>
-      <c r="R58" s="3">
-        <v>6400</v>
-      </c>
-      <c r="S58" s="3">
-        <v>6400</v>
       </c>
       <c r="T58" s="3">
         <v>6400</v>
       </c>
       <c r="U58" s="3">
+        <v>6400</v>
+      </c>
+      <c r="V58" s="3">
+        <v>6400</v>
+      </c>
+      <c r="W58" s="3">
         <v>5700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>7400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>8400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>7500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F59" s="3">
         <v>2700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1700</v>
-      </c>
-      <c r="S59" s="3">
-        <v>1500</v>
-      </c>
-      <c r="T59" s="3">
-        <v>1500</v>
       </c>
       <c r="U59" s="3">
         <v>1500</v>
@@ -4006,81 +4280,93 @@
         <v>1500</v>
       </c>
       <c r="Y59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AA59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F60" s="3">
         <v>4000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>7600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>8800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>10400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>10200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>9500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>8400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>7300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>5400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>11000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>11100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>10800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>9700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>9600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>11800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>12800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>12400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4100,129 +4386,141 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>200</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>1500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>3000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>4400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>5700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>7000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>5400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>6600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>7800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>8900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>10000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>8500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>8500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>10500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F62" s="3">
         <v>1300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>700</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>600</v>
-      </c>
-      <c r="R62" s="3">
-        <v>600</v>
       </c>
       <c r="S62" s="3">
         <v>600</v>
       </c>
       <c r="T62" s="3">
+        <v>600</v>
+      </c>
+      <c r="U62" s="3">
+        <v>600</v>
+      </c>
+      <c r="V62" s="3">
         <v>500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>500</v>
-      </c>
-      <c r="V62" s="3">
-        <v>600</v>
-      </c>
-      <c r="W62" s="3">
-        <v>600</v>
       </c>
       <c r="X62" s="3">
         <v>600</v>
       </c>
       <c r="Y62" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA62" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F66" s="3">
         <v>5400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>5700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>9400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>10800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>12100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>13600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>14300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>14700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>15000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>13000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>17100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>18300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>19200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>19200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>20100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>20900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>21900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>23500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-203000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-198500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-194200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-190300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-187600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-184500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-181400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-178500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-175200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-172300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-168500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-164900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-161500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-156900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-152900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-147900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-143400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-137600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-131200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-125100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-119200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-112900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-106500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-97900</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>80900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>85200</v>
+      </c>
+      <c r="F76" s="3">
         <v>89400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>93000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>66100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>69000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>21800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>16800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>11900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>13100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>10800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>14100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>17300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-5200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-1500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>3700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>3400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>3300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>8300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-3100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-3100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-3300</v>
       </c>
       <c r="J81" s="3">
         <v>-2900</v>
       </c>
       <c r="K81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="M81" s="3">
         <v>-3800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-3600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-3400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-4600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-4000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-4500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-5800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-6300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-6200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-5800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-6300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-6400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-8500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5473,10 +5871,10 @@
         <v>100</v>
       </c>
       <c r="U83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W83" s="3">
         <v>200</v>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-3200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-3200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-2500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-2600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-3200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-4300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-3600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-3300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-3700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-4300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-3100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-4000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-5000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-5400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-5800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-5100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-6100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-7300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-6700</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5961,43 +6403,43 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>10</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3" t="s">
+      <c r="P91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S91" s="3" t="s">
+      <c r="Q91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -6011,8 +6453,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6174,32 +6634,32 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O94" s="3" t="s">
+      <c r="Q94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
@@ -6224,8 +6684,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,79 +7021,91 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>29600</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>50200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>4800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>6600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>4700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>18900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>3600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>6900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>4300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>7100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>2500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>4300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>18600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +7175,87 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>27000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-3200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>47100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>2300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>4000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-2600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-4200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-3700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>15200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>4300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-3900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-5800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>1600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-3300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-6600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>11300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-3300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RWLK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RWLK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>RWLK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,242 +665,255 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1600</v>
+        <v>2200</v>
       </c>
       <c r="E8" s="3">
         <v>900</v>
       </c>
       <c r="F8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G8" s="3">
+        <v>900</v>
+      </c>
+      <c r="H8" s="3">
         <v>1200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>900</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1600</v>
-      </c>
-      <c r="R8" s="3">
-        <v>1600</v>
       </c>
       <c r="S8" s="3">
         <v>1600</v>
       </c>
       <c r="T8" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="U8" s="3">
         <v>1600</v>
       </c>
       <c r="V8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="W8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="X8" s="3">
         <v>1500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>2000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>2500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>1600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>700</v>
+      </c>
+      <c r="F9" s="3">
         <v>800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>800</v>
-      </c>
-      <c r="K9" s="3">
-        <v>400</v>
-      </c>
-      <c r="L9" s="3">
-        <v>600</v>
       </c>
       <c r="M9" s="3">
         <v>400</v>
       </c>
       <c r="N9" s="3">
+        <v>600</v>
+      </c>
+      <c r="O9" s="3">
+        <v>400</v>
+      </c>
+      <c r="P9" s="3">
         <v>500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>700</v>
-      </c>
-      <c r="R9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="S9" s="3">
-        <v>900</v>
       </c>
       <c r="T9" s="3">
         <v>1000</v>
@@ -909,102 +922,114 @@
         <v>900</v>
       </c>
       <c r="V9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W9" s="3">
         <v>900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y9" s="3">
         <v>1000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>1300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>1500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>1700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
         <v>800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>600</v>
-      </c>
-      <c r="S10" s="3">
-        <v>700</v>
-      </c>
-      <c r="T10" s="3">
-        <v>800</v>
       </c>
       <c r="U10" s="3">
         <v>700</v>
       </c>
       <c r="V10" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="W10" s="3">
         <v>700</v>
       </c>
       <c r="X10" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y10" s="3">
         <v>700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA10" s="3">
         <v>1100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>-100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,28 +1057,30 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F12" s="3">
         <v>1000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>600</v>
-      </c>
-      <c r="H12" s="3">
-        <v>800</v>
-      </c>
-      <c r="I12" s="3">
-        <v>800</v>
       </c>
       <c r="J12" s="3">
         <v>800</v>
@@ -1062,55 +1089,61 @@
         <v>800</v>
       </c>
       <c r="L12" s="3">
+        <v>800</v>
+      </c>
+      <c r="M12" s="3">
+        <v>800</v>
+      </c>
+      <c r="N12" s="3">
         <v>1000</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1100</v>
       </c>
       <c r="O12" s="3">
         <v>1000</v>
       </c>
       <c r="P12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R12" s="3">
         <v>1900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>1400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>1700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>1600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>1900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>2200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>1600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>1600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>1400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>1400</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>2300</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,8 +1219,14 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1233,38 +1272,44 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>300</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1385,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1417,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F17" s="3">
         <v>5900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>5200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>5100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>4600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>4600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>4300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>4200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>4400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>4300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>5100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>5200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>5600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>5700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>7000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>7400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>7100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>7100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>7700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>8200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>9600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-4300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-3900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-2600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-3200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-3000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-3100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-2500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-3600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-3200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-3100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-3600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-4000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-4100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-5200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-5800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-5600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-5400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-5700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-8000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,38 +1614,40 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1603,108 +1670,120 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
-        <v>100</v>
-      </c>
       <c r="W20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X20" s="3">
         <v>100</v>
       </c>
       <c r="Y20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-4300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-3700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-3100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-3000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-2500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-3500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-3100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-3000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-3500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-3900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-4000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-5200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-5700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-5400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-5200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-5500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-5500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-7900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1714,11 +1793,11 @@
       <c r="E22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1727,40 +1806,40 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>300</v>
-      </c>
-      <c r="O22" s="3">
-        <v>400</v>
-      </c>
-      <c r="P22" s="3">
-        <v>400</v>
       </c>
       <c r="Q22" s="3">
         <v>400</v>
       </c>
       <c r="R22" s="3">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="S22" s="3">
         <v>400</v>
       </c>
       <c r="T22" s="3">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="U22" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="V22" s="3">
         <v>500</v>
@@ -1769,114 +1848,126 @@
         <v>500</v>
       </c>
       <c r="X22" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z22" s="3">
         <v>700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-4300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-3800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-3000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-3300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-3800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-3600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-3400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-4000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-5000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-4500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-5800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-6300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-6100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-5800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-6300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-6400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-8600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1887,14 +1978,14 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1917,14 +2008,14 @@
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>100</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
       <c r="Y24" s="3">
         <v>0</v>
       </c>
@@ -1934,8 +2025,14 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2108,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-4400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-3900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-3100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-3100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-3300</v>
       </c>
       <c r="L26" s="3">
         <v>-2900</v>
       </c>
       <c r="M26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="O26" s="3">
         <v>-3800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-3600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-3400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-4000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-5000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-4500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-5800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-6300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-6200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-5800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-6300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-6400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-8500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-4400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-4400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-3900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-3100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-3300</v>
       </c>
       <c r="L27" s="3">
         <v>-2900</v>
       </c>
       <c r="M27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="O27" s="3">
         <v>-3800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-3600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-3400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-4000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-5000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-4500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-5800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-6300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-6200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-5800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-6300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-6400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-8500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2357,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2440,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,38 +2606,44 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2527,108 +2666,120 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-100</v>
-      </c>
       <c r="W32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X32" s="3">
         <v>-100</v>
       </c>
       <c r="Y32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-4400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-3900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-3300</v>
       </c>
       <c r="L33" s="3">
         <v>-2900</v>
       </c>
       <c r="M33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="O33" s="3">
         <v>-3800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-3600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-3400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-4000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-5000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-4500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-5800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-6300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-6200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-5800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-6300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-6400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-8500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2855,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-4400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-3900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-3300</v>
       </c>
       <c r="L35" s="3">
         <v>-2900</v>
       </c>
       <c r="M35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="O35" s="3">
         <v>-3800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-3600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-3400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-4000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-5000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-4500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-5800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-6300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-6200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-5800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-6300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-6400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-8500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3092,93 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>67900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>74000</v>
+      </c>
+      <c r="F41" s="3">
         <v>78800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>82600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>88300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>91200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>64200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>67400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>20400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>18100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>14100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>16600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>16300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>20400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>24100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>8900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>9500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>5200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>9100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>8800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>14600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>12900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>16300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>17100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>23700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,316 +3254,346 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>400</v>
+      </c>
+      <c r="F43" s="3">
         <v>900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>700</v>
-      </c>
-      <c r="K43" s="3">
-        <v>700</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1100</v>
       </c>
       <c r="M43" s="3">
         <v>700</v>
       </c>
       <c r="N43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O43" s="3">
+        <v>700</v>
+      </c>
+      <c r="P43" s="3">
         <v>800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1600</v>
-      </c>
-      <c r="V43" s="3">
-        <v>1100</v>
-      </c>
-      <c r="W43" s="3">
-        <v>1300</v>
       </c>
       <c r="X43" s="3">
         <v>1100</v>
       </c>
       <c r="Y43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA43" s="3">
         <v>1400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>1300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F44" s="3">
         <v>3100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>3200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>3000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>3100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>3300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>3500</v>
-      </c>
-      <c r="J44" s="3">
-        <v>3500</v>
-      </c>
-      <c r="K44" s="3">
-        <v>3700</v>
       </c>
       <c r="L44" s="3">
         <v>3500</v>
       </c>
       <c r="M44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="N44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="O44" s="3">
         <v>3300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>3100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>3000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>2700</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>2500</v>
-      </c>
-      <c r="R44" s="3">
-        <v>2200</v>
       </c>
       <c r="S44" s="3">
         <v>2500</v>
       </c>
       <c r="T44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U44" s="3">
+        <v>2500</v>
+      </c>
+      <c r="V44" s="3">
         <v>3000</v>
-      </c>
-      <c r="U44" s="3">
-        <v>3500</v>
-      </c>
-      <c r="V44" s="3">
-        <v>3600</v>
       </c>
       <c r="W44" s="3">
         <v>3500</v>
       </c>
       <c r="X44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Z44" s="3">
         <v>3400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>3000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>6500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F45" s="3">
         <v>1000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>1200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>2000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>1600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>1700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>1300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>1400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>1100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>72500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>78900</v>
+      </c>
+      <c r="F46" s="3">
         <v>83800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>87800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>92500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>96300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>69200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>71900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>25200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>23300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>19700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>22000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>21100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>25100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>28500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>13400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>13200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>10100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>15200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>15900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>20900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>19400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>22000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>22900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>29300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3669,14 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3469,76 +3684,82 @@
         <v>1000</v>
       </c>
       <c r="E48" s="3">
+        <v>900</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G48" s="3">
         <v>1100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2000</v>
-      </c>
-      <c r="M48" s="3">
-        <v>2200</v>
-      </c>
-      <c r="N48" s="3">
-        <v>2200</v>
       </c>
       <c r="O48" s="3">
         <v>2200</v>
       </c>
       <c r="P48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R48" s="3">
         <v>2300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>700</v>
-      </c>
-      <c r="T48" s="3">
-        <v>800</v>
-      </c>
-      <c r="U48" s="3">
-        <v>800</v>
       </c>
       <c r="V48" s="3">
         <v>800</v>
       </c>
       <c r="W48" s="3">
+        <v>800</v>
+      </c>
+      <c r="X48" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y48" s="3">
         <v>900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>1300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3835,14 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,28 +4001,34 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>700</v>
+      </c>
+      <c r="E52" s="3">
         <v>1000</v>
       </c>
-      <c r="E52" s="3">
-        <v>1100</v>
-      </c>
       <c r="F52" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G52" s="3">
         <v>1100</v>
       </c>
       <c r="H52" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I52" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="J52" s="3">
         <v>1000</v>
@@ -3804,7 +4043,7 @@
         <v>1000</v>
       </c>
       <c r="N52" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="O52" s="3">
         <v>1000</v>
@@ -3813,28 +4052,28 @@
         <v>1100</v>
       </c>
       <c r="Q52" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="R52" s="3">
         <v>1100</v>
       </c>
       <c r="S52" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T52" s="3">
         <v>1100</v>
       </c>
       <c r="U52" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="V52" s="3">
         <v>1100</v>
       </c>
       <c r="W52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="X52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="Y52" s="3">
         <v>1200</v>
@@ -3843,10 +4082,16 @@
         <v>1200</v>
       </c>
       <c r="AA52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AC52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4167,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>74200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>80800</v>
+      </c>
+      <c r="F54" s="3">
         <v>85800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>90000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>94800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>98700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>71700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>74600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>28100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>26200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>22700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>25200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>24400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>28400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>32000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>17000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>15000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>11900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>17000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>17700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>22900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>21500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>24300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>25300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>31800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,221 +4316,235 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>2100</v>
       </c>
       <c r="I57" s="3">
         <v>2000</v>
       </c>
       <c r="J57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L57" s="3">
         <v>2300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>3000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2800</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>2800</v>
-      </c>
-      <c r="R57" s="3">
-        <v>2300</v>
       </c>
       <c r="S57" s="3">
         <v>2800</v>
       </c>
       <c r="T57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="U57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="V57" s="3">
         <v>3000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>2900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>2400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>2900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>3000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>3400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>3300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>4500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>5700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>5400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>4400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>3500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>2600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>7000</v>
-      </c>
-      <c r="T58" s="3">
-        <v>6400</v>
-      </c>
-      <c r="U58" s="3">
-        <v>6400</v>
       </c>
       <c r="V58" s="3">
         <v>6400</v>
       </c>
       <c r="W58" s="3">
+        <v>6400</v>
+      </c>
+      <c r="X58" s="3">
+        <v>6400</v>
+      </c>
+      <c r="Y58" s="3">
         <v>5700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>7400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>8400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>7500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F59" s="3">
         <v>2200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1700</v>
-      </c>
-      <c r="U59" s="3">
-        <v>1500</v>
-      </c>
-      <c r="V59" s="3">
-        <v>1500</v>
       </c>
       <c r="W59" s="3">
         <v>1500</v>
@@ -4286,87 +4559,99 @@
         <v>1500</v>
       </c>
       <c r="AA59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AC59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F60" s="3">
         <v>3800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>7600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>8800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>10400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>10200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>9500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>8400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>7300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>5400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>11000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>11100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>10800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>9700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>9600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>11800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>12800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>12400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4392,135 +4677,147 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>200</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>1500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>3000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>4400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>5700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>7000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>5400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>6600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>7800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>8900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>10000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>8500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>8500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>10500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F62" s="3">
         <v>1100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>2000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>2000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>700</v>
-      </c>
-      <c r="S62" s="3">
-        <v>600</v>
-      </c>
-      <c r="T62" s="3">
-        <v>600</v>
       </c>
       <c r="U62" s="3">
         <v>600</v>
       </c>
       <c r="V62" s="3">
+        <v>600</v>
+      </c>
+      <c r="W62" s="3">
+        <v>600</v>
+      </c>
+      <c r="X62" s="3">
         <v>500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>500</v>
-      </c>
-      <c r="X62" s="3">
-        <v>600</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>600</v>
       </c>
       <c r="Z62" s="3">
         <v>600</v>
       </c>
       <c r="AA62" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>600</v>
+      </c>
+      <c r="AC62" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5059,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F66" s="3">
         <v>4900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>9400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>10800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>12100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>13600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>14300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>14700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>15000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>13000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>17100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>18300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>19200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>19200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>20100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>20900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>21900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>23500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5422,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5505,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-213800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-208400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-203000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-198500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-194200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-190300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-187600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-184500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-181400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-178500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-175200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-172300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-168500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-164900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-161500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-156900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-152900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-147900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-143400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-137600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-131200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-125100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-119200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-112900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-106500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-97900</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5837,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>68200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>75600</v>
+      </c>
+      <c r="F76" s="3">
         <v>80900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>85200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>89400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>93000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>66100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>69000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>21800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>16800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>11900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>13100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>10800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>14100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>17300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-5200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-1300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-1500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>3700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>3400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>3300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>8300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6003,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-4400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-3900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-3300</v>
       </c>
       <c r="L81" s="3">
         <v>-2900</v>
       </c>
       <c r="M81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="O81" s="3">
         <v>-3800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-3600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-3400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-4000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-5000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-4500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-5800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-6300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-6200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-5800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-6300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-6400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-8500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,13 +6209,15 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -5877,10 +6274,10 @@
         <v>100</v>
       </c>
       <c r="W83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y83" s="3">
         <v>200</v>
@@ -5891,8 +6288,14 @@
       <c r="AA83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6703,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-3700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-5700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-2600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-3200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-3200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-2600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-3200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-4300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-3600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-3300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-4300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-2600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-3100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-4000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-5000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-5400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-5800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-5100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-6100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-7300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-6700</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6821,10 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6409,43 +6850,43 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>10</v>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3" t="s">
+      <c r="R91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U91" s="3" t="s">
+      <c r="S91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
@@ -6459,8 +6900,14 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +7066,14 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6640,32 +7099,32 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q94" s="3" t="s">
+      <c r="S94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -6690,8 +7149,14 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7184,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7263,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,108 +7512,120 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-2300</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>29600</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>50200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>4800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>6600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>4700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>18900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>3600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>6900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>4300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>7100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>2500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>4300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>18600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -7181,81 +7678,93 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-3800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-5700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-2900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>27000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-3200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>47100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>2300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>4000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-2600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-4200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-3700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>15200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>4300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-3900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-5800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>1600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-3300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-6600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>11300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-3300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RWLK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RWLK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>RWLK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,172 +665,176 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E8" s="3">
         <v>2200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>800</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1200</v>
       </c>
       <c r="Q8" s="3">
         <v>1200</v>
       </c>
       <c r="R8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S8" s="3">
         <v>900</v>
-      </c>
-      <c r="S8" s="3">
-        <v>1600</v>
       </c>
       <c r="T8" s="3">
         <v>1600</v>
@@ -839,197 +843,206 @@
         <v>1600</v>
       </c>
       <c r="V8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="W8" s="3">
         <v>1800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>700</v>
+      </c>
+      <c r="E9" s="3">
         <v>1500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1000</v>
-      </c>
-      <c r="W9" s="3">
-        <v>900</v>
       </c>
       <c r="X9" s="3">
         <v>900</v>
       </c>
       <c r="Y9" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z9" s="3">
         <v>1000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>500</v>
+      </c>
+      <c r="E10" s="3">
         <v>700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>800</v>
-      </c>
-      <c r="G10" s="3">
-        <v>300</v>
       </c>
       <c r="H10" s="3">
         <v>300</v>
       </c>
       <c r="I10" s="3">
+        <v>300</v>
+      </c>
+      <c r="J10" s="3">
         <v>1200</v>
-      </c>
-      <c r="J10" s="3">
-        <v>700</v>
       </c>
       <c r="K10" s="3">
         <v>700</v>
       </c>
       <c r="L10" s="3">
+        <v>700</v>
+      </c>
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>600</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>700</v>
       </c>
       <c r="Z10" s="3">
         <v>700</v>
       </c>
       <c r="AA10" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB10" s="3">
         <v>1100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>-100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,31 +1072,32 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="E12" s="3">
         <v>1100</v>
       </c>
       <c r="F12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G12" s="3">
         <v>1000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>600</v>
-      </c>
-      <c r="J12" s="3">
-        <v>800</v>
       </c>
       <c r="K12" s="3">
         <v>800</v>
@@ -1095,55 +1109,58 @@
         <v>800</v>
       </c>
       <c r="N12" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="O12" s="3">
         <v>1000</v>
       </c>
       <c r="P12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q12" s="3">
         <v>1100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>2200</v>
-      </c>
-      <c r="X12" s="3">
-        <v>1600</v>
       </c>
       <c r="Y12" s="3">
         <v>1600</v>
       </c>
       <c r="Z12" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="AA12" s="3">
         <v>1400</v>
       </c>
       <c r="AB12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AC12" s="3">
         <v>2300</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,8 +1242,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1278,29 +1298,29 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>300</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>10</v>
@@ -1308,8 +1328,11 @@
       <c r="AC14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E17" s="3">
         <v>7200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5100</v>
-      </c>
-      <c r="I17" s="3">
-        <v>4600</v>
       </c>
       <c r="J17" s="3">
         <v>4600</v>
       </c>
       <c r="K17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="L17" s="3">
         <v>4300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4200</v>
-      </c>
-      <c r="O17" s="3">
-        <v>4400</v>
       </c>
       <c r="P17" s="3">
         <v>4400</v>
       </c>
       <c r="Q17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="R17" s="3">
         <v>4300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7400</v>
-      </c>
-      <c r="X17" s="3">
-        <v>7100</v>
       </c>
       <c r="Y17" s="3">
         <v>7100</v>
       </c>
       <c r="Z17" s="3">
+        <v>7100</v>
+      </c>
+      <c r="AA17" s="3">
         <v>7700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>8200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>9600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-4300</v>
       </c>
       <c r="G18" s="3">
         <v>-4300</v>
       </c>
       <c r="H18" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-3900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-4000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-4100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-5200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-5800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-5400</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>-5700</v>
       </c>
       <c r="AA18" s="3">
         <v>-5700</v>
       </c>
       <c r="AB18" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-8000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,41 +1649,42 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1676,13 +1710,13 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="3">
         <v>100</v>
@@ -1691,7 +1725,7 @@
         <v>100</v>
       </c>
       <c r="AA20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB20" s="3">
         <v>0</v>
@@ -1699,91 +1733,97 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-4900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-5400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-3900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-4000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-5200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-5700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-5400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-5200</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>-5500</v>
       </c>
       <c r="AA21" s="3">
         <v>-5500</v>
       </c>
       <c r="AB21" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-7900</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1799,8 +1839,8 @@
       <c r="G22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1812,22 +1852,22 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>200</v>
       </c>
       <c r="N22" s="3">
         <v>200</v>
       </c>
       <c r="O22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P22" s="3">
         <v>300</v>
       </c>
       <c r="Q22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R22" s="3">
         <v>400</v>
@@ -1836,13 +1876,13 @@
         <v>400</v>
       </c>
       <c r="T22" s="3">
+        <v>400</v>
+      </c>
+      <c r="U22" s="3">
         <v>1000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>400</v>
-      </c>
-      <c r="V22" s="3">
-        <v>500</v>
       </c>
       <c r="W22" s="3">
         <v>500</v>
@@ -1854,111 +1894,117 @@
         <v>500</v>
       </c>
       <c r="Z22" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="AA22" s="3">
         <v>700</v>
       </c>
       <c r="AB22" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AC22" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-3000</v>
       </c>
       <c r="L23" s="3">
         <v>-3000</v>
       </c>
       <c r="M23" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="N23" s="3">
         <v>-3300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-4500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-5800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-6300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-6100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-5800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-6300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-6400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-8600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1966,11 +2012,11 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1984,11 +2030,11 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -2014,11 +2060,11 @@
         <v>0</v>
       </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>100</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
       <c r="Z24" s="3">
         <v>0</v>
       </c>
@@ -2031,8 +2077,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5500</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-4400</v>
       </c>
       <c r="G26" s="3">
         <v>-4400</v>
       </c>
       <c r="H26" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I26" s="3">
         <v>-3900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2700</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-3100</v>
       </c>
       <c r="K26" s="3">
         <v>-3100</v>
       </c>
       <c r="L26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-2900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-5000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-4500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-5800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-6300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-6200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-5800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-6300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-6400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-8500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5500</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-4400</v>
       </c>
       <c r="G27" s="3">
         <v>-4400</v>
       </c>
       <c r="H27" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-3900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2700</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-3100</v>
       </c>
       <c r="K27" s="3">
         <v>-3100</v>
       </c>
       <c r="L27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-2900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-5000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-4500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-5800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-6300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-6200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-5800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-6300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-6400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-8500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,41 +2679,44 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2672,13 +2742,13 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="3">
         <v>-100</v>
@@ -2687,7 +2757,7 @@
         <v>-100</v>
       </c>
       <c r="AA32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB32" s="3">
         <v>0</v>
@@ -2695,91 +2765,97 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5500</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-4400</v>
       </c>
       <c r="G33" s="3">
         <v>-4400</v>
       </c>
       <c r="H33" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I33" s="3">
         <v>-3900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2700</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-3100</v>
       </c>
       <c r="K33" s="3">
         <v>-3100</v>
       </c>
       <c r="L33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-2900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-5000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-4500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-5800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-6300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-6200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-5800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-6300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-6400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-8500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5500</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-4400</v>
       </c>
       <c r="G35" s="3">
         <v>-4400</v>
       </c>
       <c r="H35" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I35" s="3">
         <v>-3900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2700</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-3100</v>
       </c>
       <c r="K35" s="3">
         <v>-3100</v>
       </c>
       <c r="L35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-2900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-5000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-4500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-5800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-6300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-6200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-5800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-6300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-6400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-8500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,91 +3180,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>61900</v>
+      </c>
+      <c r="E41" s="3">
         <v>67900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>74000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>78800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>82600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>88300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>91200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>64200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>67400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>20400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>18100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>16600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>16300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>20400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>24100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>8800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>14600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>12900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>16300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>17100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>23700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,340 +3350,355 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
         <v>1000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>900</v>
-      </c>
-      <c r="G43" s="3">
-        <v>600</v>
       </c>
       <c r="H43" s="3">
         <v>600</v>
       </c>
       <c r="I43" s="3">
+        <v>600</v>
+      </c>
+      <c r="J43" s="3">
         <v>1300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>500</v>
-      </c>
-      <c r="L43" s="3">
-        <v>700</v>
       </c>
       <c r="M43" s="3">
         <v>700</v>
       </c>
       <c r="N43" s="3">
+        <v>700</v>
+      </c>
+      <c r="O43" s="3">
         <v>1100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1300</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3300</v>
-      </c>
-      <c r="K44" s="3">
-        <v>3500</v>
       </c>
       <c r="L44" s="3">
         <v>3500</v>
       </c>
       <c r="M44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="N44" s="3">
         <v>3700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>6500</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
-      </c>
-      <c r="I45" s="3">
-        <v>800</v>
       </c>
       <c r="J45" s="3">
         <v>800</v>
       </c>
       <c r="K45" s="3">
+        <v>800</v>
+      </c>
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>700</v>
-      </c>
-      <c r="U45" s="3">
-        <v>1200</v>
       </c>
       <c r="V45" s="3">
         <v>1200</v>
       </c>
       <c r="W45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X45" s="3">
         <v>2000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1100</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>66900</v>
+      </c>
+      <c r="E46" s="3">
         <v>72500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>78900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>83800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>87800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>92500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>96300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>69200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>71900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>25200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>23300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>19700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>22000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>21100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>25100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>28500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>13400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>13200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>10100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>15200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>15900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>20900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>19400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>22000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>22900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>29300</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3675,46 +3780,49 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2000</v>
-      </c>
-      <c r="O48" s="3">
-        <v>2200</v>
       </c>
       <c r="P48" s="3">
         <v>2200</v>
@@ -3723,19 +3831,19 @@
         <v>2200</v>
       </c>
       <c r="R48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="S48" s="3">
         <v>2300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>700</v>
-      </c>
-      <c r="V48" s="3">
-        <v>800</v>
       </c>
       <c r="W48" s="3">
         <v>800</v>
@@ -3744,22 +3852,25 @@
         <v>800</v>
       </c>
       <c r="Y48" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z48" s="3">
         <v>900</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>1100</v>
       </c>
       <c r="AA48" s="3">
         <v>1100</v>
       </c>
       <c r="AB48" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="AC48" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3841,8 +3952,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4124,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4016,13 +4136,13 @@
         <v>700</v>
       </c>
       <c r="E52" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F52" s="3">
         <v>1000</v>
       </c>
       <c r="G52" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H52" s="3">
         <v>1100</v>
@@ -4031,7 +4151,7 @@
         <v>1100</v>
       </c>
       <c r="J52" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K52" s="3">
         <v>1000</v>
@@ -4049,13 +4169,13 @@
         <v>1000</v>
       </c>
       <c r="P52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1000</v>
-      </c>
-      <c r="R52" s="3">
-        <v>1100</v>
       </c>
       <c r="S52" s="3">
         <v>1100</v>
@@ -4064,10 +4184,10 @@
         <v>1100</v>
       </c>
       <c r="U52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V52" s="3">
         <v>1000</v>
-      </c>
-      <c r="V52" s="3">
-        <v>1100</v>
       </c>
       <c r="W52" s="3">
         <v>1100</v>
@@ -4076,7 +4196,7 @@
         <v>1100</v>
       </c>
       <c r="Y52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="Z52" s="3">
         <v>1200</v>
@@ -4088,10 +4208,13 @@
         <v>1200</v>
       </c>
       <c r="AC52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AD52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E54" s="3">
         <v>74200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>80800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>85800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>90000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>94800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>98700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>71700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>74600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>26200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>22700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>25200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>24400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>28400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>32000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>17000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>15000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>11900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>17000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>17700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>22900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>21500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>24300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>25300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>31800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,91 +4448,95 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2300</v>
-      </c>
-      <c r="M57" s="3">
-        <v>2100</v>
       </c>
       <c r="N57" s="3">
         <v>2100</v>
       </c>
       <c r="O57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P57" s="3">
         <v>2800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3000</v>
-      </c>
-      <c r="R57" s="3">
-        <v>2800</v>
       </c>
       <c r="S57" s="3">
         <v>2800</v>
       </c>
       <c r="T57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="U57" s="3">
         <v>2300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>3000</v>
-      </c>
-      <c r="AB57" s="3">
-        <v>3400</v>
       </c>
       <c r="AC57" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4427,41 +4561,41 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>3300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7000</v>
-      </c>
-      <c r="V58" s="3">
-        <v>6400</v>
       </c>
       <c r="W58" s="3">
         <v>6400</v>
@@ -4470,84 +4604,87 @@
         <v>6400</v>
       </c>
       <c r="Y58" s="3">
+        <v>6400</v>
+      </c>
+      <c r="Z58" s="3">
         <v>5700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>7400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>8400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>7500</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E59" s="3">
         <v>2800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2300</v>
-      </c>
-      <c r="F59" s="3">
-        <v>2200</v>
       </c>
       <c r="G59" s="3">
         <v>2200</v>
       </c>
       <c r="H59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I59" s="3">
         <v>2700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1900</v>
-      </c>
-      <c r="P59" s="3">
-        <v>2000</v>
       </c>
       <c r="Q59" s="3">
         <v>2000</v>
       </c>
       <c r="R59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S59" s="3">
         <v>2100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1900</v>
-      </c>
-      <c r="T59" s="3">
-        <v>1300</v>
       </c>
       <c r="U59" s="3">
         <v>1300</v>
       </c>
       <c r="V59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W59" s="3">
         <v>1700</v>
-      </c>
-      <c r="W59" s="3">
-        <v>1500</v>
       </c>
       <c r="X59" s="3">
         <v>1500</v>
@@ -4565,93 +4702,99 @@
         <v>1500</v>
       </c>
       <c r="AC59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AD59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E60" s="3">
         <v>4800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>11000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>11100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>10800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>9700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>9600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>11800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>12800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>12400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4683,114 +4826,117 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>200</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>6600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>8900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>10000</v>
-      </c>
-      <c r="Z61" s="3">
-        <v>8500</v>
       </c>
       <c r="AA61" s="3">
         <v>8500</v>
       </c>
       <c r="AB61" s="3">
+        <v>8500</v>
+      </c>
+      <c r="AC61" s="3">
         <v>10500</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1200</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1300</v>
       </c>
       <c r="I62" s="3">
         <v>1300</v>
       </c>
       <c r="J62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K62" s="3">
         <v>1400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1500</v>
-      </c>
-      <c r="L62" s="3">
-        <v>1600</v>
       </c>
       <c r="M62" s="3">
         <v>1600</v>
       </c>
       <c r="N62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O62" s="3">
         <v>1700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1800</v>
-      </c>
-      <c r="P62" s="3">
-        <v>1900</v>
       </c>
       <c r="Q62" s="3">
         <v>1900</v>
       </c>
       <c r="R62" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="S62" s="3">
         <v>2000</v>
       </c>
       <c r="T62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U62" s="3">
         <v>700</v>
-      </c>
-      <c r="U62" s="3">
-        <v>600</v>
       </c>
       <c r="V62" s="3">
         <v>600</v>
@@ -4799,13 +4945,13 @@
         <v>600</v>
       </c>
       <c r="X62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Y62" s="3">
         <v>500</v>
       </c>
       <c r="Z62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AA62" s="3">
         <v>600</v>
@@ -4814,10 +4960,13 @@
         <v>600</v>
       </c>
       <c r="AC62" s="3">
+        <v>600</v>
+      </c>
+      <c r="AD62" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E66" s="3">
         <v>6100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>14700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>13000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>17100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>18300</v>
-      </c>
-      <c r="W66" s="3">
-        <v>19200</v>
       </c>
       <c r="X66" s="3">
         <v>19200</v>
       </c>
       <c r="Y66" s="3">
+        <v>19200</v>
+      </c>
+      <c r="Z66" s="3">
         <v>20100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>20900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>21900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>23500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-218100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-213800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-208400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-203000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-198500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-194200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-190300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-187600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-184500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-181400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-178500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-175200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-172300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-168500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-164900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-161500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-156900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-152900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-147900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-143400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-137600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-131200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-125100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-119200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-112900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-106500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-97900</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>63500</v>
+      </c>
+      <c r="E76" s="3">
         <v>68200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>75600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>80900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>85200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>89400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>93000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>66100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>69000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>17300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-5200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>8300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5500</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-4400</v>
       </c>
       <c r="G81" s="3">
         <v>-4400</v>
       </c>
       <c r="H81" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I81" s="3">
         <v>-3900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2700</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-3100</v>
       </c>
       <c r="K81" s="3">
         <v>-3100</v>
       </c>
       <c r="L81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-2900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-5000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-4500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-5800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-6300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-6200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-5800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-6300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-6400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-8500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6220,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -6280,7 +6479,7 @@
         <v>100</v>
       </c>
       <c r="Y83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z83" s="3">
         <v>200</v>
@@ -6294,8 +6493,11 @@
       <c r="AC83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5700</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-2600</v>
       </c>
       <c r="I89" s="3">
         <v>-2600</v>
       </c>
       <c r="J89" s="3">
-        <v>-3200</v>
+        <v>-2600</v>
       </c>
       <c r="K89" s="3">
         <v>-3200</v>
       </c>
       <c r="L89" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="M89" s="3">
         <v>-2500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-3100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-4000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-5000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-5400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-5800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-5100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-6100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-7300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-6700</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7043,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6856,19 +7077,19 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>10</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>10</v>
@@ -6876,20 +7097,20 @@
       <c r="S91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>10</v>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="X91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
@@ -6906,8 +7127,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,8 +7299,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7105,11 +7335,11 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -7119,14 +7349,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>10</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -7155,8 +7385,11 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,102 +7761,108 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>29600</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>50200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>6600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>18900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>6900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>4300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>7100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>2500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>4300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>18600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>10</v>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>10</v>
@@ -7627,8 +7876,8 @@
       <c r="J101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -7684,87 +7933,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>27000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>47100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>15200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-5800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-3300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-6600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>11300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-3300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RWLK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RWLK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>RWLK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,183 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E8" s="3">
         <v>1200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>800</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1200</v>
       </c>
       <c r="R8" s="3">
         <v>1200</v>
       </c>
       <c r="S8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T8" s="3">
         <v>900</v>
-      </c>
-      <c r="T8" s="3">
-        <v>1600</v>
       </c>
       <c r="U8" s="3">
         <v>1600</v>
@@ -846,117 +850,123 @@
         <v>1600</v>
       </c>
       <c r="W8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="X8" s="3">
         <v>1800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1600</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>800</v>
+      </c>
+      <c r="E9" s="3">
         <v>700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1000</v>
-      </c>
-      <c r="X9" s="3">
-        <v>900</v>
       </c>
       <c r="Y9" s="3">
         <v>900</v>
       </c>
       <c r="Z9" s="3">
+        <v>900</v>
+      </c>
+      <c r="AA9" s="3">
         <v>1000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1700</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -964,85 +974,88 @@
         <v>500</v>
       </c>
       <c r="E10" s="3">
+        <v>500</v>
+      </c>
+      <c r="F10" s="3">
         <v>700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>800</v>
-      </c>
-      <c r="H10" s="3">
-        <v>300</v>
       </c>
       <c r="I10" s="3">
         <v>300</v>
       </c>
       <c r="J10" s="3">
+        <v>300</v>
+      </c>
+      <c r="K10" s="3">
         <v>1200</v>
-      </c>
-      <c r="K10" s="3">
-        <v>700</v>
       </c>
       <c r="L10" s="3">
         <v>700</v>
       </c>
       <c r="M10" s="3">
+        <v>700</v>
+      </c>
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>600</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>700</v>
       </c>
       <c r="AA10" s="3">
         <v>700</v>
       </c>
       <c r="AB10" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC10" s="3">
         <v>1100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>-100</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1082,25 +1096,25 @@
         <v>800</v>
       </c>
       <c r="E12" s="3">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="F12" s="3">
         <v>1100</v>
       </c>
       <c r="G12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H12" s="3">
         <v>1000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>600</v>
-      </c>
-      <c r="K12" s="3">
-        <v>800</v>
       </c>
       <c r="L12" s="3">
         <v>800</v>
@@ -1112,55 +1126,58 @@
         <v>800</v>
       </c>
       <c r="O12" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="P12" s="3">
         <v>1000</v>
       </c>
       <c r="Q12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R12" s="3">
         <v>1100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>2200</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>1600</v>
       </c>
       <c r="Z12" s="3">
         <v>1600</v>
       </c>
       <c r="AA12" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="AB12" s="3">
         <v>1400</v>
       </c>
       <c r="AC12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AD12" s="3">
         <v>2300</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1301,29 +1321,29 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
         <v>0</v>
       </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>300</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>10</v>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E17" s="3">
         <v>5600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5100</v>
-      </c>
-      <c r="J17" s="3">
-        <v>4600</v>
       </c>
       <c r="K17" s="3">
         <v>4600</v>
       </c>
       <c r="L17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="M17" s="3">
         <v>4300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4200</v>
-      </c>
-      <c r="P17" s="3">
-        <v>4400</v>
       </c>
       <c r="Q17" s="3">
         <v>4400</v>
       </c>
       <c r="R17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="S17" s="3">
         <v>4300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7400</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>7100</v>
       </c>
       <c r="Z17" s="3">
         <v>7100</v>
       </c>
       <c r="AA17" s="3">
+        <v>7100</v>
+      </c>
+      <c r="AB17" s="3">
         <v>7700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>8200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>9600</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-4300</v>
       </c>
       <c r="H18" s="3">
         <v>-4300</v>
       </c>
       <c r="I18" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J18" s="3">
         <v>-3900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-4000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-4100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-5200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-5800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-5400</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>-5700</v>
       </c>
       <c r="AB18" s="3">
         <v>-5700</v>
       </c>
       <c r="AC18" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-8000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,44 +1683,45 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1713,13 +1747,13 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="3">
         <v>100</v>
@@ -1728,7 +1762,7 @@
         <v>100</v>
       </c>
       <c r="AB20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC20" s="3">
         <v>0</v>
@@ -1736,94 +1770,100 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-4300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-4900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-3500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-3900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-4000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-5200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-5400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-5200</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>-5500</v>
       </c>
       <c r="AB21" s="3">
         <v>-5500</v>
       </c>
       <c r="AC21" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="AD21" s="3">
         <v>-7900</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1842,8 +1882,8 @@
       <c r="H22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1855,22 +1895,22 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
-      </c>
-      <c r="N22" s="3">
-        <v>200</v>
       </c>
       <c r="O22" s="3">
         <v>200</v>
       </c>
       <c r="P22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q22" s="3">
         <v>300</v>
       </c>
       <c r="R22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S22" s="3">
         <v>400</v>
@@ -1879,13 +1919,13 @@
         <v>400</v>
       </c>
       <c r="U22" s="3">
+        <v>400</v>
+      </c>
+      <c r="V22" s="3">
         <v>1000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>400</v>
-      </c>
-      <c r="W22" s="3">
-        <v>500</v>
       </c>
       <c r="X22" s="3">
         <v>500</v>
@@ -1897,105 +1937,111 @@
         <v>500</v>
       </c>
       <c r="AA22" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="AB22" s="3">
         <v>700</v>
       </c>
       <c r="AC22" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AD22" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-3000</v>
       </c>
       <c r="M23" s="3">
         <v>-3000</v>
       </c>
       <c r="N23" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="O23" s="3">
         <v>-3300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-5000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-4500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-5800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-6300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-6100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-5800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-6300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-6400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-8600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2003,11 +2049,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -2015,11 +2061,11 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -2033,11 +2079,11 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -2063,11 +2109,11 @@
         <v>0</v>
       </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>100</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
       <c r="AA24" s="3">
         <v>0</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-4400</v>
       </c>
       <c r="H26" s="3">
         <v>-4400</v>
       </c>
       <c r="I26" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="J26" s="3">
         <v>-3900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2700</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-3100</v>
       </c>
       <c r="L26" s="3">
         <v>-3100</v>
       </c>
       <c r="M26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-2900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-4000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-5000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-4500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-5800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-6300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-6200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-5800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-6300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-6400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-8500</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5500</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-4400</v>
       </c>
       <c r="H27" s="3">
         <v>-4400</v>
       </c>
       <c r="I27" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="J27" s="3">
         <v>-3900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2700</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-3100</v>
       </c>
       <c r="L27" s="3">
         <v>-3100</v>
       </c>
       <c r="M27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-2900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-5000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-4500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-5800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-6300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-6200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-5800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-6300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-6400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-8500</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,44 +2749,47 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2745,13 +2815,13 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="3">
         <v>-100</v>
@@ -2760,7 +2830,7 @@
         <v>-100</v>
       </c>
       <c r="AB32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AC32" s="3">
         <v>0</v>
@@ -2768,94 +2838,100 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5500</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-4400</v>
       </c>
       <c r="H33" s="3">
         <v>-4400</v>
       </c>
       <c r="I33" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="J33" s="3">
         <v>-3900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2700</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-3100</v>
       </c>
       <c r="L33" s="3">
         <v>-3100</v>
       </c>
       <c r="M33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-2900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-5000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-4500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-5800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-6300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-6200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-5800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-6300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-6400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-8500</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5500</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-4400</v>
       </c>
       <c r="H35" s="3">
         <v>-4400</v>
       </c>
       <c r="I35" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="J35" s="3">
         <v>-3900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2700</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-3100</v>
       </c>
       <c r="L35" s="3">
         <v>-3100</v>
       </c>
       <c r="M35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-2900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-5000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-4500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-5800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-6300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-6200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-5800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-6300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-6400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-8500</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>58200</v>
+      </c>
+      <c r="E41" s="3">
         <v>61900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>67900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>74000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>78800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>82600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>88300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>91200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>64200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>67400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>20400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>18100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>16600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>16300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>20400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>24100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>8800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>14600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>12900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>16300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>17100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>23700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,94 +3443,100 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>800</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>900</v>
-      </c>
-      <c r="H43" s="3">
-        <v>600</v>
       </c>
       <c r="I43" s="3">
         <v>600</v>
       </c>
       <c r="J43" s="3">
+        <v>600</v>
+      </c>
+      <c r="K43" s="3">
         <v>1300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>500</v>
-      </c>
-      <c r="M43" s="3">
-        <v>700</v>
       </c>
       <c r="N43" s="3">
         <v>700</v>
       </c>
       <c r="O43" s="3">
+        <v>700</v>
+      </c>
+      <c r="P43" s="3">
         <v>1100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1300</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3448,257 +3544,266 @@
         <v>3000</v>
       </c>
       <c r="E44" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F44" s="3">
         <v>2900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3300</v>
-      </c>
-      <c r="L44" s="3">
-        <v>3500</v>
       </c>
       <c r="M44" s="3">
         <v>3500</v>
       </c>
       <c r="N44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="O44" s="3">
         <v>3700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>6500</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
         <v>1400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
-      </c>
-      <c r="J45" s="3">
-        <v>800</v>
       </c>
       <c r="K45" s="3">
         <v>800</v>
       </c>
       <c r="L45" s="3">
+        <v>800</v>
+      </c>
+      <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>700</v>
-      </c>
-      <c r="V45" s="3">
-        <v>1200</v>
       </c>
       <c r="W45" s="3">
         <v>1200</v>
       </c>
       <c r="X45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y45" s="3">
         <v>2000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1100</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>63800</v>
+      </c>
+      <c r="E46" s="3">
         <v>66900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>72500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>78900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>83800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>87800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>92500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>96300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>69200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>71900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>25200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>23300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>19700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>22000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>21100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>25100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>28500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>13400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>13200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>10100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>15200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>15900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>20900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>19400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>22000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>22900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>29300</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,49 +3888,52 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E48" s="3">
         <v>1400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2000</v>
-      </c>
-      <c r="P48" s="3">
-        <v>2200</v>
       </c>
       <c r="Q48" s="3">
         <v>2200</v>
@@ -3834,19 +3942,19 @@
         <v>2200</v>
       </c>
       <c r="S48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="T48" s="3">
         <v>2300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>700</v>
-      </c>
-      <c r="W48" s="3">
-        <v>800</v>
       </c>
       <c r="X48" s="3">
         <v>800</v>
@@ -3855,22 +3963,25 @@
         <v>800</v>
       </c>
       <c r="Z48" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA48" s="3">
         <v>900</v>
-      </c>
-      <c r="AA48" s="3">
-        <v>1100</v>
       </c>
       <c r="AB48" s="3">
         <v>1100</v>
       </c>
       <c r="AC48" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="AD48" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4139,13 +4259,13 @@
         <v>700</v>
       </c>
       <c r="F52" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="G52" s="3">
         <v>1000</v>
       </c>
       <c r="H52" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I52" s="3">
         <v>1100</v>
@@ -4154,7 +4274,7 @@
         <v>1100</v>
       </c>
       <c r="K52" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="L52" s="3">
         <v>1000</v>
@@ -4172,13 +4292,13 @@
         <v>1000</v>
       </c>
       <c r="Q52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R52" s="3">
         <v>1100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1000</v>
-      </c>
-      <c r="S52" s="3">
-        <v>1100</v>
       </c>
       <c r="T52" s="3">
         <v>1100</v>
@@ -4187,10 +4307,10 @@
         <v>1100</v>
       </c>
       <c r="V52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W52" s="3">
         <v>1000</v>
-      </c>
-      <c r="W52" s="3">
-        <v>1100</v>
       </c>
       <c r="X52" s="3">
         <v>1100</v>
@@ -4199,7 +4319,7 @@
         <v>1100</v>
       </c>
       <c r="Z52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="AA52" s="3">
         <v>1200</v>
@@ -4211,10 +4331,13 @@
         <v>1200</v>
       </c>
       <c r="AD52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AE52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>65800</v>
+      </c>
+      <c r="E54" s="3">
         <v>69000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>74200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>80800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>85800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>90000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>94800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>98700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>71700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>74600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>28100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>26200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>22700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>25200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>24400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>28400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>32000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>17000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>15000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>11900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>17000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>17700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>22900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>21500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>24300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>25300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>31800</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,94 +4579,98 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2300</v>
-      </c>
-      <c r="N57" s="3">
-        <v>2100</v>
       </c>
       <c r="O57" s="3">
         <v>2100</v>
       </c>
       <c r="P57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Q57" s="3">
         <v>2800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3000</v>
-      </c>
-      <c r="S57" s="3">
-        <v>2800</v>
       </c>
       <c r="T57" s="3">
         <v>2800</v>
       </c>
       <c r="U57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="V57" s="3">
         <v>2300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>3000</v>
-      </c>
-      <c r="AC57" s="3">
-        <v>3400</v>
       </c>
       <c r="AD57" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4564,41 +4698,41 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>3300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>7000</v>
-      </c>
-      <c r="W58" s="3">
-        <v>6400</v>
       </c>
       <c r="X58" s="3">
         <v>6400</v>
@@ -4607,87 +4741,90 @@
         <v>6400</v>
       </c>
       <c r="Z58" s="3">
+        <v>6400</v>
+      </c>
+      <c r="AA58" s="3">
         <v>5700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>7400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>8400</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>7500</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E59" s="3">
         <v>2100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2300</v>
-      </c>
-      <c r="G59" s="3">
-        <v>2200</v>
       </c>
       <c r="H59" s="3">
         <v>2200</v>
       </c>
       <c r="I59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J59" s="3">
         <v>2700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1900</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>2000</v>
       </c>
       <c r="R59" s="3">
         <v>2000</v>
       </c>
       <c r="S59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T59" s="3">
         <v>2100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1900</v>
-      </c>
-      <c r="U59" s="3">
-        <v>1300</v>
       </c>
       <c r="V59" s="3">
         <v>1300</v>
       </c>
       <c r="W59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X59" s="3">
         <v>1700</v>
-      </c>
-      <c r="X59" s="3">
-        <v>1500</v>
       </c>
       <c r="Y59" s="3">
         <v>1500</v>
@@ -4705,96 +4842,102 @@
         <v>1500</v>
       </c>
       <c r="AD59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AE59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E60" s="3">
         <v>3900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>11000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>11100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>10800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>9700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>9600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>11800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>12800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>12400</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4829,117 +4972,120 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>200</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>1500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>6600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>7800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>8900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>10000</v>
-      </c>
-      <c r="AA61" s="3">
-        <v>8500</v>
       </c>
       <c r="AB61" s="3">
         <v>8500</v>
       </c>
       <c r="AC61" s="3">
+        <v>8500</v>
+      </c>
+      <c r="AD61" s="3">
         <v>10500</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1200</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1300</v>
       </c>
       <c r="J62" s="3">
         <v>1300</v>
       </c>
       <c r="K62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L62" s="3">
         <v>1400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1500</v>
-      </c>
-      <c r="M62" s="3">
-        <v>1600</v>
       </c>
       <c r="N62" s="3">
         <v>1600</v>
       </c>
       <c r="O62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P62" s="3">
         <v>1700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1800</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>1900</v>
       </c>
       <c r="R62" s="3">
         <v>1900</v>
       </c>
       <c r="S62" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="T62" s="3">
         <v>2000</v>
       </c>
       <c r="U62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V62" s="3">
         <v>700</v>
-      </c>
-      <c r="V62" s="3">
-        <v>600</v>
       </c>
       <c r="W62" s="3">
         <v>600</v>
@@ -4948,13 +5094,13 @@
         <v>600</v>
       </c>
       <c r="Y62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Z62" s="3">
         <v>500</v>
       </c>
       <c r="AA62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AB62" s="3">
         <v>600</v>
@@ -4963,10 +5109,13 @@
         <v>600</v>
       </c>
       <c r="AD62" s="3">
+        <v>600</v>
+      </c>
+      <c r="AE62" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E66" s="3">
         <v>5500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>14300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>14700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>15000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>17100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>18300</v>
-      </c>
-      <c r="X66" s="3">
-        <v>19200</v>
       </c>
       <c r="Y66" s="3">
         <v>19200</v>
       </c>
       <c r="Z66" s="3">
+        <v>19200</v>
+      </c>
+      <c r="AA66" s="3">
         <v>20100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>20900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>21900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>23500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-222700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-218100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-213800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-208400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-203000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-198500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-194200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-190300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-187600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-184500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-181400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-178500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-175200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-172300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-168500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-164900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-161500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-156900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-152900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-147900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-143400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-137600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-131200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-125100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-119200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-112900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-106500</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-97900</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E76" s="3">
         <v>63500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>68200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>75600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>80900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>85200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>89400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>93000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>66100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>69000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>17300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-5200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>3300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>8300</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5500</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-4400</v>
       </c>
       <c r="H81" s="3">
         <v>-4400</v>
       </c>
       <c r="I81" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="J81" s="3">
         <v>-3900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2700</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-3100</v>
       </c>
       <c r="L81" s="3">
         <v>-3100</v>
       </c>
       <c r="M81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-2900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-5000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-4500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-5800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-6300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-6200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-5800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-6300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-6400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-8500</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6422,7 +6621,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -6482,7 +6681,7 @@
         <v>100</v>
       </c>
       <c r="Z83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA83" s="3">
         <v>200</v>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5700</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-2600</v>
       </c>
       <c r="J89" s="3">
         <v>-2600</v>
       </c>
       <c r="K89" s="3">
-        <v>-3200</v>
+        <v>-2600</v>
       </c>
       <c r="L89" s="3">
         <v>-3200</v>
       </c>
       <c r="M89" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="N89" s="3">
         <v>-2500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-3700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-4300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-3100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-4000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-5400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-5800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-5100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-6100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-7300</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-6700</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7080,19 +7301,19 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>10</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>10</v>
@@ -7100,20 +7321,20 @@
       <c r="T91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>10</v>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
+      <c r="Y91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Z91" s="3">
         <v>0</v>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7338,11 +7568,11 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -7352,14 +7582,14 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>10</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="U94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,94 +8007,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>29600</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>50200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>6600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>18900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>6900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>4300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>7100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>2500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>4300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>18600</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7859,13 +8108,13 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>10</v>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>10</v>
@@ -7879,8 +8128,8 @@
       <c r="K101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -7936,90 +8185,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>27000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>47100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>15200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-5800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-3300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-6600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>11300</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-3300</v>
       </c>
     </row>
